--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -23,7 +23,7 @@
     <sheet name="授权系人群组中间表" sheetId="28" r:id="rId9"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId10"/>
     <sheet name="日程参与人表" sheetId="10" r:id="rId11"/>
-    <sheet name="标签表" sheetId="14" r:id="rId12"/>
+    <sheet name="标签表" sheetId="33" r:id="rId12"/>
     <sheet name="系統設置表" sheetId="32" r:id="rId13"/>
     <sheet name="角色表" sheetId="20" r:id="rId14"/>
     <sheet name="用户角色中间表" sheetId="21" r:id="rId15"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="232">
   <si>
     <t>表名</t>
   </si>
@@ -78,734 +78,785 @@
     <t>GTD_SCHEDULE_PLAYERS</t>
   </si>
   <si>
+    <t>实体名</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>字段中文名</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>账户ID</t>
+  </si>
+  <si>
+    <t>ACCOUNT_ID</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>账号密码</t>
+  </si>
+  <si>
+    <t>ACCOUNT_PASSWORD</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>账户名</t>
+  </si>
+  <si>
+    <t>ACCOUNT_NAME</t>
+  </si>
+  <si>
+    <t>手机号</t>
+  </si>
+  <si>
+    <t>用户注册登陆主要方式</t>
+  </si>
+  <si>
+    <t>ACCOUNT_MOBILE</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>微信</t>
+  </si>
+  <si>
+    <t>ACCOUNT_WECHAT</t>
+  </si>
+  <si>
+    <t>QQ</t>
+  </si>
+  <si>
+    <t>ACCOUNT_QQ</t>
+  </si>
+  <si>
+    <t>邮箱</t>
+  </si>
+  <si>
+    <t>ACCOUNT_EMAIL</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>HEADIMG_URL</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>BRITHDAY</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>USER_SEX</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>0是注册用户，1是未注册用户</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>登陆记录ID</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>登录时间</t>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+  </si>
+  <si>
+    <t>登陆IP</t>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+  </si>
+  <si>
+    <t>SCHEDULE_NAME</t>
+  </si>
+  <si>
+    <t>完成状态</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_STATUS</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>PLAYERS_FINISH_DATE</t>
+  </si>
+  <si>
+    <t>参与人</t>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+  </si>
+  <si>
+    <t>RULE_ID</t>
+  </si>
+  <si>
+    <t>中间表自增主键</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>GTD_ROLE</t>
+  </si>
+  <si>
+    <t>角色表</t>
+  </si>
+  <si>
+    <t>USER_ROLE_ID</t>
+  </si>
+  <si>
+    <t>GTD_USER_ROLE</t>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+  </si>
+  <si>
+    <t>权限ID</t>
+  </si>
+  <si>
+    <t>ROLE_RULE_ID</t>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+  </si>
+  <si>
+    <t>USER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆地点</t>
+  </si>
+  <si>
+    <t>登陆地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ROLE_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表关系人主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，3未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>标签表</t>
   </si>
   <si>
     <t>GTD_LABEL</t>
   </si>
   <si>
-    <t>实体名</t>
-  </si>
-  <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>字段中文名</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>账户ID</t>
-  </si>
-  <si>
-    <t>ACCOUNT_ID</t>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账号密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>用户ID</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>账号密码</t>
-  </si>
-  <si>
-    <t>ACCOUNT_PASSWORD</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>账户名</t>
-  </si>
-  <si>
-    <t>ACCOUNT_NAME</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>用户注册登陆主要方式</t>
-  </si>
-  <si>
-    <t>ACCOUNT_MOBILE</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>ACCOUNT_WECHAT</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>ACCOUNT_QQ</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>ACCOUNT_EMAIL</t>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-  </si>
-  <si>
-    <t>创建日期</t>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-  </si>
-  <si>
-    <t>更新日期</t>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>用户头像</t>
-  </si>
-  <si>
-    <t>HEADIMG_URL</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>BRITHDAY</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>USER_SEX</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>用户类型</t>
-  </si>
-  <si>
-    <t>0是注册用户，1是未注册用户</t>
-  </si>
-  <si>
-    <t>USER_TYPE</t>
-  </si>
-  <si>
-    <t>登陆记录ID</t>
-  </si>
-  <si>
-    <t>设备ID</t>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>登录时间</t>
-  </si>
-  <si>
-    <t>LOGIN_TIME</t>
-  </si>
-  <si>
-    <t>登陆IP</t>
-  </si>
-  <si>
-    <t>LOGIN_IP</t>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
-  </si>
-  <si>
-    <t>完成状态</t>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_STATUS</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>PLAYERS_FINISH_DATE</t>
-  </si>
-  <si>
-    <t>参与人</t>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>LABEL_ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>RULE_ID</t>
-  </si>
-  <si>
-    <t>中间表自增主键</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_NAME</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-  </si>
-  <si>
-    <t>角色ID</t>
-  </si>
-  <si>
-    <t>GTD_ROLE</t>
-  </si>
-  <si>
-    <t>角色表</t>
-  </si>
-  <si>
-    <t>USER_ROLE_ID</t>
-  </si>
-  <si>
-    <t>GTD_USER_ROLE</t>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-  </si>
-  <si>
-    <t>权限ID</t>
-  </si>
-  <si>
-    <t>ROLE_RULE_ID</t>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-  </si>
-  <si>
-    <t>USER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆地点</t>
-  </si>
-  <si>
-    <t>登陆地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_LOCALTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ROLE_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>是否固定</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0默认为不固定，1固定；固定就不能再去修改</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ISFIXED     </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对应日程子表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备用字段</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_RESERVE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,7 +967,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -954,6 +1005,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1242,7 +1296,7 @@
   <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B20" sqref="A4:B20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1264,66 +1318,94 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>2</v>
+        <v>202</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>204</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="7"/>
-      <c r="B4" s="2"/>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="2"/>
-    </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="7"/>
+      <c r="A6" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="B6" s="2"/>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="7"/>
+      <c r="A7" s="7" t="s">
+        <v>208</v>
+      </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="7"/>
+      <c r="A8" s="7" t="s">
+        <v>209</v>
+      </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="7"/>
+      <c r="A9" s="7" t="s">
+        <v>210</v>
+      </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="7"/>
+      <c r="A10" s="7" t="s">
+        <v>211</v>
+      </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="7"/>
+      <c r="A11" s="7" t="s">
+        <v>212</v>
+      </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="7"/>
+      <c r="A12" s="7" t="s">
+        <v>213</v>
+      </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="7"/>
+      <c r="A13" s="7" t="s">
+        <v>215</v>
+      </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="7"/>
+      <c r="A14" s="7" t="s">
+        <v>214</v>
+      </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="7"/>
+      <c r="A15" s="7" t="s">
+        <v>216</v>
+      </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
@@ -1409,8 +1491,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A2" location="账户表!A1" display="账户表"/>
-    <hyperlink ref="A3" location="用户表!A1" display="用户表"/>
+    <hyperlink ref="A4" location="账户表!A1" display="账户表"/>
+    <hyperlink ref="A5" location="用户表!A1" display="用户表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1420,7 +1502,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -1435,7 +1517,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
@@ -1443,146 +1525,146 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>207</v>
+        <v>190</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>209</v>
+        <v>192</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>208</v>
+        <v>191</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1614,7 +1696,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>10</v>
@@ -1622,191 +1704,191 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>210</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>211</v>
+        <v>194</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>212</v>
+        <v>195</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>213</v>
+        <v>196</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>215</v>
+        <v>198</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -1821,10 +1903,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:F8"/>
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1838,109 +1920,109 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>12</v>
+        <v>217</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>218</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="13" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>145</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>85</v>
+        <v>220</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>201</v>
+        <v>224</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>201</v>
+        <v>225</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>202</v>
+        <v>226</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>204</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>205</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>228</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1955,22 +2037,22 @@
         <v>42</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>113</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1985,22 +2067,7 @@
         <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2009,7 +2076,6 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2032,154 +2098,154 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>187</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>188</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>177</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>189</v>
+        <v>178</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>190</v>
+        <v>179</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>191</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>192</v>
+        <v>181</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>193</v>
+        <v>182</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>194</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>195</v>
+        <v>184</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>196</v>
+        <v>185</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>198</v>
+        <v>187</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>197</v>
+        <v>186</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2224,124 +2290,124 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F7" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2372,139 +2438,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>92</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2535,139 +2601,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2698,139 +2764,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2858,16 +2924,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B1" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="C1" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="D1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2884,178 +2950,6 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>162</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
@@ -3074,112 +2968,274 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>169</v>
       </c>
+      <c r="F2" s="14"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>162</v>
+      </c>
       <c r="E5" s="4" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>170</v>
+        <v>163</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>173</v>
+        <v>166</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>174</v>
+        <v>167</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>161</v>
-      </c>
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
@@ -3258,7 +3314,7 @@
   <dimension ref="A2:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3272,7 +3328,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3280,166 +3336,166 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>28</v>
+        <v>230</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>2</v>
@@ -3447,208 +3503,208 @@
       <c r="D18" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="F18" s="13"/>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="E19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="F19" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B20" s="5"/>
       <c r="D20" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>20</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="5" t="s">
-        <v>23</v>
+        <v>231</v>
       </c>
       <c r="B21" s="5"/>
       <c r="D21" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" s="5"/>
       <c r="D22" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B23" s="5"/>
       <c r="D23" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="F24" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B25" s="5"/>
       <c r="D25" s="5" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B26" s="5"/>
       <c r="D26" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="5" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B27" s="5"/>
       <c r="D27" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B28" s="5"/>
       <c r="D28" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B29" s="5"/>
       <c r="D29" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F29" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="5"/>
       <c r="D30" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B31" s="5"/>
       <c r="D31" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3667,7 +3723,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3681,7 +3737,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -3689,225 +3745,225 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>53</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>181</v>
+        <v>170</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>184</v>
+        <v>173</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>186</v>
+        <v>175</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B12" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>63</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -3923,8 +3979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3938,7 +3994,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -3946,176 +4002,176 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="13"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>216</v>
+        <v>199</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>217</v>
+        <v>200</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>218</v>
+        <v>201</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
         <v>65</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -4132,7 +4188,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="A4:F11"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4146,156 +4202,156 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>144</v>
+        <v>137</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4348,64 +4404,64 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="F2" s="13"/>
+      <c r="E2" s="14" t="s">
+        <v>131</v>
+      </c>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="F3" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6">

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -17,18 +17,19 @@
     <sheet name="字典表" sheetId="29" r:id="rId3"/>
     <sheet name="字典数据表" sheetId="30" r:id="rId4"/>
     <sheet name="账户表" sheetId="3" r:id="rId5"/>
-    <sheet name="用户表" sheetId="4" r:id="rId6"/>
-    <sheet name="登陆记录表" sheetId="6" r:id="rId7"/>
-    <sheet name="用户授权表" sheetId="27" r:id="rId8"/>
-    <sheet name="授权系人群组中间表" sheetId="28" r:id="rId9"/>
-    <sheet name="日程事件表" sheetId="9" r:id="rId10"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId11"/>
-    <sheet name="标签表" sheetId="33" r:id="rId12"/>
-    <sheet name="系統設置表" sheetId="32" r:id="rId13"/>
-    <sheet name="角色表" sheetId="20" r:id="rId14"/>
-    <sheet name="用户角色中间表" sheetId="21" r:id="rId15"/>
-    <sheet name="角色权限表" sheetId="25" r:id="rId16"/>
-    <sheet name="角色权限中间表" sheetId="22" r:id="rId17"/>
+    <sheet name="登陆方式表" sheetId="34" r:id="rId6"/>
+    <sheet name="用户表" sheetId="4" r:id="rId7"/>
+    <sheet name="登陆记录表" sheetId="6" r:id="rId8"/>
+    <sheet name="用户授权表" sheetId="27" r:id="rId9"/>
+    <sheet name="授权系人群组中间表" sheetId="28" r:id="rId10"/>
+    <sheet name="日程事件表" sheetId="9" r:id="rId11"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId12"/>
+    <sheet name="标签表" sheetId="33" r:id="rId13"/>
+    <sheet name="系統設置表" sheetId="32" r:id="rId14"/>
+    <sheet name="角色表" sheetId="20" r:id="rId15"/>
+    <sheet name="用户角色中间表" sheetId="21" r:id="rId16"/>
+    <sheet name="角色权限表" sheetId="25" r:id="rId17"/>
+    <sheet name="角色权限中间表" sheetId="22" r:id="rId18"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="240">
   <si>
     <t>表名</t>
   </si>
@@ -96,12 +97,6 @@
     <t>字段类型</t>
   </si>
   <si>
-    <t>账户ID</t>
-  </si>
-  <si>
-    <t>ACCOUNT_ID</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
@@ -111,752 +106,806 @@
     <t>USER_ID</t>
   </si>
   <si>
-    <t>账号密码</t>
-  </si>
-  <si>
-    <t>ACCOUNT_PASSWORD</t>
-  </si>
-  <si>
     <t>varchar(20)</t>
   </si>
   <si>
-    <t>账户名</t>
-  </si>
-  <si>
-    <t>ACCOUNT_NAME</t>
-  </si>
-  <si>
-    <t>手机号</t>
-  </si>
-  <si>
-    <t>用户注册登陆主要方式</t>
-  </si>
-  <si>
-    <t>ACCOUNT_MOBILE</t>
-  </si>
-  <si>
     <t>varchar(11)</t>
   </si>
   <si>
-    <t>微信</t>
-  </si>
-  <si>
-    <t>ACCOUNT_WECHAT</t>
-  </si>
-  <si>
-    <t>QQ</t>
-  </si>
-  <si>
-    <t>ACCOUNT_QQ</t>
-  </si>
-  <si>
-    <t>邮箱</t>
-  </si>
-  <si>
-    <t>ACCOUNT_EMAIL</t>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>HEADIMG_URL</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>BRITHDAY</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>USER_SEX</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>登陆记录ID</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>登录时间</t>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+  </si>
+  <si>
+    <t>登陆IP</t>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+  </si>
+  <si>
+    <t>SCHEDULE_NAME</t>
+  </si>
+  <si>
+    <t>完成状态</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_STATUS</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>PLAYERS_FINISH_DATE</t>
+  </si>
+  <si>
+    <t>参与人</t>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+  </si>
+  <si>
+    <t>RULE_ID</t>
+  </si>
+  <si>
+    <t>中间表自增主键</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>GTD_ROLE</t>
+  </si>
+  <si>
+    <t>角色表</t>
+  </si>
+  <si>
+    <t>USER_ROLE_ID</t>
+  </si>
+  <si>
+    <t>GTD_USER_ROLE</t>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+  </si>
+  <si>
+    <t>权限ID</t>
+  </si>
+  <si>
+    <t>ROLE_RULE_ID</t>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+  </si>
+  <si>
+    <t>USER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆地点</t>
+  </si>
+  <si>
+    <t>登陆地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ROLE_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表关系人主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，3未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>账户角色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_ROLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆账户名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_INVITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>varchar(30)</t>
-  </si>
-  <si>
-    <t>创建人</t>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-  </si>
-  <si>
-    <t>创建日期</t>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>更新人</t>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-  </si>
-  <si>
-    <t>更新日期</t>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>用户头像</t>
-  </si>
-  <si>
-    <t>HEADIMG_URL</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>BRITHDAY</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>USER_SEX</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>用户类型</t>
-  </si>
-  <si>
-    <t>0是注册用户，1是未注册用户</t>
-  </si>
-  <si>
-    <t>USER_TYPE</t>
-  </si>
-  <si>
-    <t>登陆记录ID</t>
-  </si>
-  <si>
-    <t>设备ID</t>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>登录时间</t>
-  </si>
-  <si>
-    <t>LOGIN_TIME</t>
-  </si>
-  <si>
-    <t>登陆IP</t>
-  </si>
-  <si>
-    <t>LOGIN_IP</t>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
-  </si>
-  <si>
-    <t>完成状态</t>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_STATUS</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>PLAYERS_FINISH_DATE</t>
-  </si>
-  <si>
-    <t>参与人</t>
-  </si>
-  <si>
-    <t>LABEL_ID</t>
-  </si>
-  <si>
-    <t>RULE_ID</t>
-  </si>
-  <si>
-    <t>中间表自增主键</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_NAME</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-  </si>
-  <si>
-    <t>角色ID</t>
-  </si>
-  <si>
-    <t>GTD_ROLE</t>
-  </si>
-  <si>
-    <t>角色表</t>
-  </si>
-  <si>
-    <t>USER_ROLE_ID</t>
-  </si>
-  <si>
-    <t>GTD_USER_ROLE</t>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-  </si>
-  <si>
-    <t>权限ID</t>
-  </si>
-  <si>
-    <t>ROLE_RULE_ID</t>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-  </si>
-  <si>
-    <t>USER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆地点</t>
-  </si>
-  <si>
-    <t>登陆地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_LOCALTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ROLE_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_USAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账号密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +1016,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1054,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1293,10 +1345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1318,18 +1370,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>202</v>
+        <v>181</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>203</v>
+        <v>182</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1350,66 +1402,70 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="B6" s="2"/>
+        <v>209</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>208</v>
+        <v>186</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>209</v>
+        <v>187</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>210</v>
+        <v>188</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>211</v>
+        <v>189</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>212</v>
+        <v>190</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>213</v>
+        <v>191</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="7"/>
+      <c r="A16" s="7" t="s">
+        <v>195</v>
+      </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
@@ -1487,12 +1543,17 @@
     <row r="35" spans="1:2">
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="7"/>
+      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="A4" location="账户表!A1" display="账户表"/>
     <hyperlink ref="A5" location="用户表!A1" display="用户表"/>
+    <hyperlink ref="A6" location="登陆方式表!A1" display="登陆方式表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1500,9 +1561,147 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>111</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -1525,10 +1724,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1549,122 +1748,122 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>72</v>
+        <v>54</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>191</v>
+        <v>171</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>84</v>
+        <v>66</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1677,7 +1876,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
@@ -1704,10 +1903,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1728,167 +1927,167 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>173</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>75</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>76</v>
+        <v>58</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>52</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>71</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>194</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>195</v>
+        <v>175</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>196</v>
+        <v>176</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>197</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>74</v>
+        <v>56</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>77</v>
+        <v>59</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>61</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>81</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>80</v>
+        <v>62</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1901,7 +2100,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
@@ -1923,15 +2122,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>196</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1952,122 +2151,122 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>219</v>
+        <v>198</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>81</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>220</v>
+        <v>199</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>221</v>
+        <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>222</v>
+        <v>201</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>223</v>
+        <v>202</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>224</v>
+        <v>203</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>225</v>
+        <v>204</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>226</v>
+        <v>205</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>227</v>
+        <v>206</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>228</v>
+        <v>207</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2079,7 +2278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2101,15 +2300,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>177</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>157</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2130,122 +2329,122 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>178</v>
+        <v>158</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>179</v>
+        <v>159</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>180</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>181</v>
+        <v>161</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>182</v>
+        <v>162</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>183</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>184</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
+        <v>165</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>187</v>
+        <v>167</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>188</v>
+        <v>168</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>186</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2271,7 +2470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
@@ -2293,15 +2492,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2322,92 +2521,92 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>85</v>
+        <v>67</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2419,7 +2618,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -2441,15 +2640,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2470,270 +2669,107 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>69</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2767,15 +2803,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2787,6 +2823,169 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
       <c r="E3" s="6" t="s">
         <v>16</v>
       </c>
@@ -2796,107 +2995,107 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>83</v>
+        <v>65</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>95</v>
+        <v>77</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>88</v>
+        <v>70</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>82</v>
+        <v>64</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>41</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2924,16 +3123,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>101</v>
+        <v>83</v>
       </c>
       <c r="B1" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="C1" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="D1" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -2971,15 +3170,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3000,32 +3199,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>152</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>168</v>
+        <v>148</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>155</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>156</v>
+        <v>136</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3143,15 +3342,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>158</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3172,62 +3371,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>160</v>
+        <v>140</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>161</v>
+        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>162</v>
+        <v>142</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>153</v>
+        <v>133</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>164</v>
+        <v>144</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>157</v>
+        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>165</v>
+        <v>145</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>166</v>
+        <v>146</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>167</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3311,10 +3510,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F31"/>
+  <dimension ref="A2:F53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3336,10 +3535,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="14"/>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3360,357 +3559,321 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>18</v>
+        <v>208</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>231</v>
+        <v>211</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>21</v>
+        <v>211</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>22</v>
+        <v>223</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>106</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>23</v>
+        <v>212</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>24</v>
+        <v>216</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>25</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>26</v>
+        <v>220</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>27</v>
+        <v>221</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>116</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>117</v>
+        <v>225</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>25</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>40</v>
+        <v>226</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>42</v>
+        <v>227</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>45</v>
+        <v>228</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>105</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>46</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="F18" s="14"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="5"/>
-      <c r="D20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="B21" s="5"/>
-      <c r="D21" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22" s="5"/>
-      <c r="D22" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B23" s="5"/>
-      <c r="D23" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="5"/>
-      <c r="D25" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="B26" s="5"/>
-      <c r="D26" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="5"/>
-      <c r="D27" s="5" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B28" s="5"/>
-      <c r="D28" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E28" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="B29" s="5"/>
-      <c r="D29" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B30" s="5"/>
-      <c r="D30" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B31" s="5"/>
-      <c r="D31" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="D52"/>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53"/>
+      <c r="B53"/>
+      <c r="D53"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="1">
     <mergeCell ref="E2:F2"/>
-    <mergeCell ref="E18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3720,10 +3883,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3740,15 +3903,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>232</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3760,211 +3923,168 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>21</v>
+        <v>213</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>22</v>
+        <v>215</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>48</v>
+        <v>208</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>49</v>
+        <v>20</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>50</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>51</v>
+        <v>217</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>52</v>
+        <v>229</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>53</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>54</v>
+        <v>218</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>55</v>
+        <v>236</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>50</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>170</v>
+        <v>219</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>172</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>173</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>174</v>
+        <v>24</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>175</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>56</v>
+        <v>25</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>97</v>
+        <v>29</v>
       </c>
       <c r="F11" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>61</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>39</v>
-      </c>
+      <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>105</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>41</v>
-      </c>
+      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>44</v>
-      </c>
+      <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3977,10 +4097,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3997,15 +4117,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4026,99 +4146,101 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>19</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>200</v>
+        <v>20</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>233</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>65</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>109</v>
+        <v>150</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>112</v>
+        <v>151</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>107</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>68</v>
+        <v>152</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>68</v>
+        <v>153</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>69</v>
+        <v>154</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5"/>
+      <c r="B10" s="5" t="s">
+        <v>155</v>
+      </c>
       <c r="D10" s="5" t="s">
         <v>39</v>
       </c>
@@ -4126,7 +4248,7 @@
         <v>40</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>106</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4138,40 +4260,294 @@
         <v>41</v>
       </c>
       <c r="E11" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="B12" s="10"/>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="15"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>230</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>45</v>
+        <v>29</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -4183,7 +4559,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
@@ -4205,15 +4581,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="F2" s="14"/>
+      <c r="E2" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="15"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4234,124 +4610,124 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>116</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>138</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>119</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>149</v>
+        <v>129</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>105</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>126</v>
+        <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>127</v>
+        <v>107</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>142</v>
+        <v>122</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>128</v>
+        <v>108</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>143</v>
+        <v>123</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>146</v>
+        <v>126</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>147</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4374,144 +4750,6 @@
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>131</v>
-      </c>
-      <c r="F2" s="14"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>123</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>133</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="1" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="244">
   <si>
     <t>表名</t>
   </si>
@@ -485,11 +485,399 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>字典表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字典值</t>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_INVITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -497,35 +885,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DICT_NAME</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -533,375 +917,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_USAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>账户角色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_ROLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆账户名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_INVITER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NICK_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
+    <t>DICT_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1370,18 +1386,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1402,69 +1418,69 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="B16" s="2"/>
     </row>
@@ -1701,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -1778,11 +1794,11 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>63</v>
@@ -1793,11 +1809,11 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>66</v>
@@ -1927,7 +1943,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -1957,14 +1973,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>95</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>87</v>
@@ -1972,14 +1988,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>80</v>
@@ -2122,13 +2138,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -2151,11 +2167,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>63</v>
@@ -2166,14 +2182,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>82</v>
@@ -2181,14 +2197,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>18</v>
@@ -2196,17 +2212,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2221,7 +2237,7 @@
         <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2300,13 +2316,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -2329,62 +2345,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3153,7 +3169,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3170,13 +3186,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -3199,68 +3215,98 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>148</v>
+        <v>233</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>136</v>
+        <v>234</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
@@ -3325,7 +3371,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F8"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3342,13 +3388,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>177</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>149</v>
+        <v>235</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -3371,91 +3417,123 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>133</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>238</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="A9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="A11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="4"/>
+      <c r="D11" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9"/>
@@ -3505,15 +3583,16 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F53"/>
+  <dimension ref="A2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A5" sqref="A5:F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3559,11 +3638,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>20</v>
@@ -3574,17 +3653,17 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3596,86 +3675,78 @@
         <v>212</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>220</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>222</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>87</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>30</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>228</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>27</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -3684,12 +3755,10 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+    <row r="17" spans="1:4">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="D17"/>
     </row>
     <row r="18" spans="1:4">
       <c r="A18"/>
@@ -3865,11 +3934,6 @@
       <c r="A52"/>
       <c r="B52"/>
       <c r="D52"/>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53"/>
-      <c r="B53"/>
-      <c r="D53"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3885,8 +3949,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:A15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3903,13 +3967,13 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F2" s="15"/>
     </row>
@@ -3932,26 +3996,26 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>20</v>
@@ -3962,44 +4026,44 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>218</v>
+        <v>232</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>93</v>
@@ -4100,7 +4164,7 @@
   <dimension ref="A2:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="D13" sqref="D13:F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4168,7 +4232,7 @@
         <v>32</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>33</v>
@@ -4206,14 +4270,14 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>33</v>
@@ -4221,14 +4285,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>93</v>
@@ -4239,7 +4303,7 @@
         <v>39</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>39</v>
@@ -4402,14 +4466,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>97</v>
@@ -4417,14 +4481,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>88</v>

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="1" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="244">
   <si>
     <t>表名</t>
   </si>
@@ -1717,7 +1717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8:XFD11"/>
     </sheetView>
   </sheetViews>
@@ -3169,7 +3169,7 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="A6" sqref="A6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3244,7 +3244,9 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>139</v>
+      </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>241</v>
@@ -3257,7 +3259,9 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
         <v>23</v>
@@ -3270,7 +3274,9 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
         <v>25</v>
@@ -3283,7 +3289,9 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
         <v>28</v>
@@ -3296,7 +3304,9 @@
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
         <v>30</v>
@@ -3949,7 +3959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="1" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="246">
   <si>
     <t>表名</t>
   </si>
@@ -922,6 +922,14 @@
   </si>
   <si>
     <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TOKEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3959,7 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
@@ -4427,10 +4435,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F13"/>
+  <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4566,61 +4574,76 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>244</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>245</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>88</v>
+        <v>47</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>89</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F13" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4630,6 +4653,7 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="1" activeTab="7"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -20,16 +20,17 @@
     <sheet name="登陆方式表" sheetId="34" r:id="rId6"/>
     <sheet name="用户表" sheetId="4" r:id="rId7"/>
     <sheet name="登陆记录表" sheetId="6" r:id="rId8"/>
-    <sheet name="用户授权表" sheetId="27" r:id="rId9"/>
-    <sheet name="授权系人群组中间表" sheetId="28" r:id="rId10"/>
-    <sheet name="日程事件表" sheetId="9" r:id="rId11"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId12"/>
-    <sheet name="标签表" sheetId="33" r:id="rId13"/>
-    <sheet name="系統設置表" sheetId="32" r:id="rId14"/>
-    <sheet name="角色表" sheetId="20" r:id="rId15"/>
-    <sheet name="用户角色中间表" sheetId="21" r:id="rId16"/>
-    <sheet name="角色权限表" sheetId="25" r:id="rId17"/>
-    <sheet name="角色权限中间表" sheetId="22" r:id="rId18"/>
+    <sheet name="token表" sheetId="35" r:id="rId9"/>
+    <sheet name="用户授权表" sheetId="27" r:id="rId10"/>
+    <sheet name="授权系人群组中间表" sheetId="28" r:id="rId11"/>
+    <sheet name="日程事件表" sheetId="9" r:id="rId12"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId13"/>
+    <sheet name="标签表" sheetId="33" r:id="rId14"/>
+    <sheet name="系統設置表" sheetId="32" r:id="rId15"/>
+    <sheet name="角色表" sheetId="20" r:id="rId16"/>
+    <sheet name="用户角色中间表" sheetId="21" r:id="rId17"/>
+    <sheet name="角色权限表" sheetId="25" r:id="rId18"/>
+    <sheet name="角色权限中间表" sheetId="22" r:id="rId19"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="260">
   <si>
     <t>表名</t>
   </si>
@@ -930,6 +931,62 @@
   </si>
   <si>
     <t>LOGIN_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1040,7 +1097,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1078,6 +1135,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -1371,8 +1431,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1493,8 +1553,12 @@
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
-      <c r="A17" s="7"/>
-      <c r="B17" s="2"/>
+      <c r="A17" s="7" t="s">
+        <v>247</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7"/>
@@ -1578,12 +1642,215 @@
     <hyperlink ref="A4" location="账户表!A1" display="账户表"/>
     <hyperlink ref="A5" location="用户表!A1" display="用户表"/>
     <hyperlink ref="A6" location="登陆方式表!A1" display="登陆方式表"/>
+    <hyperlink ref="A17" location="token表!A1" display="token表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F12"/>
   <sheetViews>
@@ -1610,10 +1877,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>111</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1721,7 +1988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
@@ -1748,10 +2015,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -1900,7 +2167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
@@ -1927,10 +2194,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2124,7 +2391,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F11"/>
   <sheetViews>
@@ -2151,10 +2418,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>192</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2302,7 +2569,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2329,10 +2596,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2494,7 +2761,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
@@ -2521,10 +2788,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>71</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2642,7 +2909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -2669,10 +2936,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>74</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2779,169 +3046,6 @@
       </c>
       <c r="F9" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2990,15 +3094,178 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="F2" s="16"/>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="E2:F2"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="16" t="s">
         <v>101</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3136,12 +3403,12 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="164.25" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3160,8 +3427,12 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="B2" s="8"/>
-      <c r="C2" s="1"/>
+      <c r="B2" s="8">
+        <v>43433</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>246</v>
+      </c>
     </row>
     <row r="3" spans="1:4">
       <c r="C3" s="12"/>
@@ -3199,10 +3470,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>179</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3411,10 +3682,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3610,7 +3881,7 @@
   <dimension ref="A2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:F5"/>
+      <selection activeCell="D40" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3632,10 +3903,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3990,10 +4261,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>225</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4204,10 +4475,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4437,7 +4708,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
@@ -4460,10 +4731,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="15"/>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4659,10 +4930,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4670,7 +4941,7 @@
     <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="22.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4679,15 +4950,15 @@
         <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>247</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="E2" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4699,38 +4970,38 @@
       <c r="D3" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="15" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>250</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>252</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>119</v>
+        <v>248</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
+        <v>66</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>88</v>
@@ -4738,95 +5009,85 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>249</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>128</v>
+        <v>253</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>251</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>130</v>
+        <v>254</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>121</v>
+        <v>25</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>106</v>
+        <v>255</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>256</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>124</v>
+        <v>257</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>125</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>127</v>
-      </c>
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5"/>
@@ -4835,19 +5096,185 @@
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+    <row r="17" spans="1:4">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="D52"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="265">
   <si>
     <t>表名</t>
   </si>
@@ -65,928 +65,952 @@
     <t>登陆记录表</t>
   </si>
   <si>
+    <t>日程事件表</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE</t>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_PLAYERS</t>
+  </si>
+  <si>
+    <t>实体名</t>
+  </si>
+  <si>
+    <t>属性名</t>
+  </si>
+  <si>
+    <t>说明</t>
+  </si>
+  <si>
+    <t>字段中文名</t>
+  </si>
+  <si>
+    <t>字段名</t>
+  </si>
+  <si>
+    <t>字段类型</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>用户ID</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+  </si>
+  <si>
+    <t>varchar(11)</t>
+  </si>
+  <si>
+    <t>创建人</t>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+  </si>
+  <si>
+    <t>创建日期</t>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+  </si>
+  <si>
+    <t>datetime</t>
+  </si>
+  <si>
+    <t>更新人</t>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+  </si>
+  <si>
+    <t>更新日期</t>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+  </si>
+  <si>
+    <t>用户名</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>用户头像</t>
+  </si>
+  <si>
+    <t>HEADIMG_URL</t>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+  </si>
+  <si>
+    <t>出生日期</t>
+  </si>
+  <si>
+    <t>BRITHDAY</t>
+  </si>
+  <si>
+    <t>性别</t>
+  </si>
+  <si>
+    <t>USER_SEX</t>
+  </si>
+  <si>
+    <t>联系方式</t>
+  </si>
+  <si>
+    <t>用户类型</t>
+  </si>
+  <si>
+    <t>USER_TYPE</t>
+  </si>
+  <si>
+    <t>登陆记录ID</t>
+  </si>
+  <si>
+    <t>设备ID</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>登录时间</t>
+  </si>
+  <si>
+    <t>登陆IP</t>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+  </si>
+  <si>
+    <t>SCHEDULE_NAME</t>
+  </si>
+  <si>
+    <t>完成状态</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_ID</t>
+  </si>
+  <si>
+    <t>PLAYERS_STATUS</t>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>PLAYERS_FINISH_DATE</t>
+  </si>
+  <si>
+    <t>参与人</t>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+  </si>
+  <si>
+    <t>RULE_ID</t>
+  </si>
+  <si>
+    <t>中间表自增主键</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>GTD_ROLE</t>
+  </si>
+  <si>
+    <t>角色表</t>
+  </si>
+  <si>
+    <t>USER_ROLE_ID</t>
+  </si>
+  <si>
+    <t>GTD_USER_ROLE</t>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+  </si>
+  <si>
+    <t>权限ID</t>
+  </si>
+  <si>
+    <t>ROLE_RULE_ID</t>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+  </si>
+  <si>
+    <t>USER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆地点</t>
+  </si>
+  <si>
+    <t>登陆地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ROLE_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>GTD_B_X</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表关系人主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BPK_MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，3未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_INVITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GTD_LOGIN_RECORD</t>
-  </si>
-  <si>
-    <t>日程事件表</t>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE</t>
-  </si>
-  <si>
-    <t>日程参与人表</t>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_PLAYERS</t>
-  </si>
-  <si>
-    <t>实体名</t>
-  </si>
-  <si>
-    <t>属性名</t>
-  </si>
-  <si>
-    <t>说明</t>
-  </si>
-  <si>
-    <t>字段中文名</t>
-  </si>
-  <si>
-    <t>字段名</t>
-  </si>
-  <si>
-    <t>字段类型</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>用户ID</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-  </si>
-  <si>
-    <t>varchar(11)</t>
-  </si>
-  <si>
-    <t>创建人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE_ID</t>
-  </si>
-  <si>
-    <t>创建日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>CREATE_DATE</t>
-  </si>
-  <si>
-    <t>datetime</t>
-  </si>
-  <si>
-    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE_ID</t>
-  </si>
-  <si>
-    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UPDATE_DATE</t>
-  </si>
-  <si>
-    <t>用户名</t>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-  </si>
-  <si>
-    <t>用户头像</t>
-  </si>
-  <si>
-    <t>HEADIMG_URL</t>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-  </si>
-  <si>
-    <t>出生日期</t>
-  </si>
-  <si>
-    <t>BRITHDAY</t>
-  </si>
-  <si>
-    <t>性别</t>
-  </si>
-  <si>
-    <t>USER_SEX</t>
-  </si>
-  <si>
-    <t>联系方式</t>
-  </si>
-  <si>
-    <t>用户类型</t>
-  </si>
-  <si>
-    <t>USER_TYPE</t>
-  </si>
-  <si>
-    <t>登陆记录ID</t>
-  </si>
-  <si>
-    <t>设备ID</t>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-  </si>
-  <si>
-    <t>登录时间</t>
-  </si>
-  <si>
-    <t>LOGIN_TIME</t>
-  </si>
-  <si>
-    <t>登陆IP</t>
-  </si>
-  <si>
-    <t>LOGIN_IP</t>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
-  </si>
-  <si>
-    <t>完成状态</t>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_STATUS</t>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>PLAYERS_FINISH_DATE</t>
-  </si>
-  <si>
-    <t>参与人</t>
-  </si>
-  <si>
-    <t>LABEL_ID</t>
-  </si>
-  <si>
-    <t>RULE_ID</t>
-  </si>
-  <si>
-    <t>中间表自增主键</t>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ROLE_NAME</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-  </si>
-  <si>
-    <t>角色ID</t>
-  </si>
-  <si>
-    <t>GTD_ROLE</t>
-  </si>
-  <si>
-    <t>角色表</t>
-  </si>
-  <si>
-    <t>USER_ROLE_ID</t>
-  </si>
-  <si>
-    <t>GTD_USER_ROLE</t>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-  </si>
-  <si>
-    <t>权限ID</t>
-  </si>
-  <si>
-    <t>ROLE_RULE_ID</t>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-  </si>
-  <si>
-    <t>USER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆地点</t>
-  </si>
-  <si>
-    <t>登陆地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_LOCALTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ROLE_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_USAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_INVITER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NICK_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1431,7 +1455,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
@@ -1454,18 +1478,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1486,78 +1510,78 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1667,156 +1691,156 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1869,64 +1893,64 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2007,154 +2031,154 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2186,199 +2210,199 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2410,154 +2434,154 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2588,154 +2612,154 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2780,124 +2804,124 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -2928,139 +2952,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3091,139 +3115,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3254,139 +3278,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -3414,16 +3438,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3431,7 +3455,7 @@
         <v>43433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3462,139 +3486,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3674,154 +3698,154 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3895,7 +3919,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -3910,124 +3934,124 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4253,169 +4277,169 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4467,7 +4491,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -4482,216 +4506,216 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>40</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>43</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>31</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4709,7 +4733,7 @@
   <dimension ref="A2:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4723,7 +4747,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -4732,190 +4756,190 @@
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>7</v>
+        <v>253</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>175</v>
+        <v>254</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>46</v>
+        <v>255</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>47</v>
+        <v>256</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>49</v>
+        <v>257</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>94</v>
+        <v>258</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>51</v>
+        <v>259</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>26</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>29</v>
+        <v>263</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -4932,7 +4956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -4947,139 +4971,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>16</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="720" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="276">
   <si>
     <t>表名</t>
   </si>
@@ -360,7 +360,320 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>BPK_ID</t>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，3未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -368,49 +681,25 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>GTD_B_X</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表关系人主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BPK_MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -418,27 +707,339 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>登陆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_INVITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>BIGINT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
+    <t>LOGIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER_MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_HEADIMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_FLAG</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -446,571 +1047,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_USAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_INVITER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UPDATE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOGIN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NICK_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN_RECORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_LOCALTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
+    <t>datetime</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1478,18 +1523,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>174</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1510,78 +1555,78 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>198</v>
+        <v>182</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>199</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>175</v>
+        <v>159</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>177</v>
+        <v>161</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>181</v>
+        <v>165</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>183</v>
+        <v>167</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>182</v>
+        <v>166</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>184</v>
+        <v>168</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>252</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1674,10 +1719,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1700,7 +1745,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>110</v>
+        <v>265</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -1723,29 +1768,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>254</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>112</v>
+        <v>258</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>113</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>124</v>
+        <v>266</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>84</v>
@@ -1753,116 +1798,170 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>123</v>
+        <v>267</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>115</v>
+        <v>249</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>125</v>
+        <v>268</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>89</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>101</v>
+        <v>269</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>117</v>
+        <v>270</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>119</v>
+        <v>271</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>120</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>121</v>
+        <v>272</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>122</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="A12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
+      <c r="A14" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
+      <c r="D14" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>275</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1879,7 +1978,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="E37" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1896,13 +1995,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>106</v>
+        <v>256</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -1925,68 +2024,108 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>98</v>
+        <v>251</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>99</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>108</v>
+        <v>252</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>99</v>
+        <v>261</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="5"/>
+      <c r="A6" s="5" t="s">
+        <v>253</v>
+      </c>
       <c r="B6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+      <c r="D6" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>262</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>263</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>24</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>27</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5"/>
@@ -2093,26 +2232,26 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>62</v>
@@ -2242,7 +2381,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
@@ -2272,14 +2411,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>83</v>
@@ -2287,14 +2426,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>76</v>
@@ -2437,13 +2576,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>169</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>186</v>
+        <v>170</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -2466,11 +2605,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>187</v>
+        <v>171</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>59</v>
@@ -2481,14 +2620,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>189</v>
+        <v>173</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>78</v>
@@ -2496,14 +2635,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>174</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>191</v>
+        <v>175</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>17</v>
@@ -2511,17 +2650,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>192</v>
+        <v>176</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>193</v>
+        <v>177</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>195</v>
+        <v>179</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2536,7 +2675,7 @@
         <v>23</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2615,13 +2754,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>147</v>
+        <v>131</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -2644,62 +2783,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>148</v>
+        <v>132</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>149</v>
+        <v>133</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>139</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>156</v>
+        <v>140</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3455,7 +3594,7 @@
         <v>43433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>239</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3489,13 +3628,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>173</v>
+        <v>157</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -3518,47 +3657,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>227</v>
+        <v>211</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>150</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>235</v>
+        <v>219</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>236</v>
+        <v>220</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>237</v>
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3701,13 +3840,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>155</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -3730,62 +3869,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>131</v>
+        <v>115</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>130</v>
+        <v>114</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3797,7 +3936,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>83</v>
@@ -3812,7 +3951,7 @@
         <v>24</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>26</v>
@@ -3827,10 +3966,10 @@
         <v>27</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3842,7 +3981,7 @@
         <v>29</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>230</v>
+        <v>214</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>26</v>
@@ -3951,11 +4090,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>19</v>
@@ -3966,32 +4105,32 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>209</v>
+        <v>193</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>202</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>208</v>
+        <v>192</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4003,7 +4142,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>210</v>
+        <v>194</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>83</v>
@@ -4018,7 +4157,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>211</v>
+        <v>195</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
@@ -4033,7 +4172,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>212</v>
+        <v>196</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>83</v>
@@ -4048,7 +4187,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>213</v>
+        <v>197</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>26</v>
@@ -4280,13 +4419,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>217</v>
+        <v>201</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -4309,26 +4448,26 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>197</v>
+        <v>181</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>19</v>
@@ -4339,44 +4478,44 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>214</v>
+        <v>198</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>221</v>
+        <v>205</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>223</v>
+        <v>207</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>222</v>
+        <v>206</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>89</v>
@@ -4545,7 +4684,7 @@
         <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>218</v>
+        <v>202</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>32</v>
@@ -4583,14 +4722,14 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>32</v>
@@ -4598,14 +4737,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>144</v>
+        <v>128</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>89</v>
@@ -4616,7 +4755,7 @@
         <v>38</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>145</v>
+        <v>129</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>38</v>
@@ -4756,7 +4895,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>253</v>
+        <v>237</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -4779,14 +4918,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>43</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>92</v>
@@ -4794,14 +4933,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>215</v>
+        <v>199</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>84</v>
@@ -4816,10 +4955,10 @@
         <v>44</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>255</v>
+        <v>239</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>256</v>
+        <v>240</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4831,7 +4970,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>257</v>
+        <v>241</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>26</v>
@@ -4846,7 +4985,7 @@
         <v>86</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>258</v>
+        <v>242</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>85</v>
@@ -4861,7 +5000,7 @@
         <v>47</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>259</v>
+        <v>243</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>20</v>
@@ -4869,14 +5008,14 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>238</v>
+        <v>222</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>45</v>
@@ -4891,7 +5030,7 @@
         <v>22</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>261</v>
+        <v>245</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>84</v>
@@ -4906,7 +5045,7 @@
         <v>24</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>26</v>
@@ -4921,7 +5060,7 @@
         <v>27</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>263</v>
+        <v>247</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>85</v>
@@ -4936,7 +5075,7 @@
         <v>29</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>264</v>
+        <v>248</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>26</v>
@@ -4956,8 +5095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4974,13 +5113,13 @@
         <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>240</v>
+        <v>224</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>251</v>
+        <v>235</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -5003,14 +5142,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>243</v>
+        <v>227</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>84</v>
@@ -5018,11 +5157,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>62</v>
@@ -5033,17 +5172,17 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5055,7 +5194,7 @@
         <v>22</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>247</v>
+        <v>231</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>83</v>
@@ -5070,7 +5209,7 @@
         <v>24</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>26</v>
@@ -5085,7 +5224,7 @@
         <v>27</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>249</v>
+        <v>233</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>83</v>
@@ -5100,7 +5239,7 @@
         <v>29</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>26</v>

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>日程参与人表</t>
   </si>
   <si>
-    <t>GTD_SCHEDULE_PLAYERS</t>
-  </si>
-  <si>
     <t>实体名</t>
   </si>
   <si>
@@ -206,18 +203,9 @@
     <t>日程参与人表ID</t>
   </si>
   <si>
-    <t>PLAYERS_ID</t>
-  </si>
-  <si>
-    <t>PLAYERS_STATUS</t>
-  </si>
-  <si>
     <t>完成时间</t>
   </si>
   <si>
-    <t>PLAYERS_FINISH_DATE</t>
-  </si>
-  <si>
     <t>参与人</t>
   </si>
   <si>
@@ -1056,6 +1044,22 @@
   </si>
   <si>
     <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_FINISH_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1523,18 +1527,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1555,78 +1559,78 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1721,7 +1725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
@@ -1736,231 +1740,231 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>254</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>258</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -1992,139 +1996,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2170,7 +2174,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>7</v>
@@ -2185,139 +2189,139 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>51</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2334,8 +2338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2349,7 +2353,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>9</v>
@@ -2358,190 +2362,190 @@
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>10</v>
+        <v>272</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>54</v>
+        <v>273</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>49</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>55</v>
+        <v>274</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>57</v>
+        <v>275</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="F12" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2573,154 +2577,154 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="F3" s="13" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="13" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -2751,154 +2755,154 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="F9" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2943,124 +2947,124 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="F7" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F8" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3091,139 +3095,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3254,139 +3258,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3417,139 +3421,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -3577,16 +3581,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B1" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C1" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -3594,7 +3598,7 @@
         <v>43433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3625,139 +3629,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E10" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3837,154 +3841,154 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4058,7 +4062,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>2</v>
@@ -4073,124 +4077,124 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4416,169 +4420,169 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="14" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="F3" s="14" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F11" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -4630,7 +4634,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -4645,216 +4649,216 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="4" t="s">
-        <v>19</v>
-      </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="4" t="s">
-        <v>37</v>
-      </c>
       <c r="F7" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>129</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>39</v>
-      </c>
       <c r="F10" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="10"/>
       <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="4" t="s">
-        <v>42</v>
-      </c>
       <c r="F12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="F14" s="4" t="s">
         <v>25</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="F15" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="F16" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -4886,7 +4890,7 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>6</v>
@@ -4895,190 +4899,190 @@
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -5110,139 +5114,139 @@
   <sheetData>
     <row r="2" spans="1:6">
       <c r="A2" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="F2" s="16"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="F3" s="15" t="s">
         <v>15</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>230</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:6">

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="12"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="760" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="284">
   <si>
     <t>表名</t>
   </si>
@@ -348,320 +348,730 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_INVITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER_MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_FINISH_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>被授权联系人ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_HEADIMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>授权标识</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>INT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>授权联系类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1是个人，2是群，3未注册用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_USAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
+    <t>PLAYER_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -669,45 +1079,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_INVITER</t>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -715,351 +1091,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ACCOUNT_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NICK_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN_RECORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_LOCALTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAYER_MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PLAYER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAYER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_HEADIMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_EXECUTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_FINISH_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1527,18 +1559,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="7" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1559,78 +1591,78 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B7" s="2"/>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="B8" s="2"/>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="B9" s="2"/>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="B10" s="2"/>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -1723,10 +1755,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1749,7 +1781,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>261</v>
+        <v>243</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -1772,29 +1804,29 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>100</v>
+        <v>254</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>80</v>
@@ -1802,169 +1834,186 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>94</v>
+        <v>256</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>80</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>101</v>
+        <v>260</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>102</v>
+        <v>263</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>85</v>
+        <v>262</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="B10" s="5"/>
+        <v>265</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>266</v>
+      </c>
       <c r="D10" s="5" t="s">
-        <v>95</v>
+        <v>265</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>267</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>96</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="5" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>74</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="5" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>104</v>
+        <v>273</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>97</v>
+        <v>272</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>253</v>
+        <v>274</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>105</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>21</v>
+        <v>275</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>21</v>
+        <v>276</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>190</v>
+        <v>277</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>176</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>269</v>
+        <v>181</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>25</v>
+        <v>167</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>192</v>
+        <v>244</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>270</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>271</v>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -1982,7 +2031,7 @@
   <dimension ref="A2:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E37" sqref="A1:XFD1048576"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1999,13 +2048,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -2028,47 +2077,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>255</v>
+        <v>240</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>257</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>249</v>
+        <v>280</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>258</v>
+        <v>281</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>176</v>
+        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2080,7 +2129,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>259</v>
+        <v>241</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>79</v>
@@ -2095,7 +2144,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>260</v>
+        <v>242</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -2110,7 +2159,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>79</v>
@@ -2125,7 +2174,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -2236,26 +2285,26 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>55</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>58</v>
@@ -2338,7 +2387,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
@@ -2362,7 +2411,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>272</v>
+        <v>247</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -2385,14 +2434,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>273</v>
+        <v>248</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>79</v>
@@ -2415,14 +2464,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>86</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>79</v>
@@ -2430,14 +2479,14 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>72</v>
@@ -2452,7 +2501,7 @@
         <v>51</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
@@ -2467,7 +2516,7 @@
         <v>53</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>275</v>
+        <v>250</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -2580,13 +2629,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -2609,11 +2658,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>55</v>
@@ -2624,14 +2673,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>74</v>
@@ -2639,14 +2688,14 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
@@ -2654,17 +2703,17 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2679,7 +2728,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2758,13 +2807,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -2787,62 +2836,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3598,7 +3647,7 @@
         <v>43433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3632,13 +3681,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -3661,47 +3710,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3844,13 +3893,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -3873,62 +3922,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3940,7 +3989,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>79</v>
@@ -3955,7 +4004,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -3970,10 +4019,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3985,7 +4034,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>25</v>
@@ -4094,11 +4143,11 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -4109,32 +4158,32 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="E5" s="4" t="s">
-        <v>189</v>
-      </c>
       <c r="F5" s="4" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4146,7 +4195,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>79</v>
@@ -4161,7 +4210,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -4176,7 +4225,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>79</v>
@@ -4191,7 +4240,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -4423,13 +4472,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -4452,26 +4501,26 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
@@ -4482,44 +4531,44 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>201</v>
+        <v>192</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>185</v>
+        <v>176</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>85</v>
@@ -4688,7 +4737,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
@@ -4726,14 +4775,14 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>31</v>
@@ -4741,14 +4790,14 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>85</v>
@@ -4759,7 +4808,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>37</v>
@@ -4899,7 +4948,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -4922,14 +4971,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>88</v>
@@ -4937,14 +4986,14 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>195</v>
+        <v>186</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>196</v>
+        <v>187</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>80</v>
@@ -4959,10 +5008,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4974,7 +5023,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
@@ -4989,7 +5038,7 @@
         <v>82</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>81</v>
@@ -5004,7 +5053,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -5012,14 +5061,14 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>44</v>
@@ -5034,7 +5083,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>80</v>
@@ -5049,7 +5098,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -5064,7 +5113,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>81</v>
@@ -5079,7 +5128,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -5117,13 +5166,13 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="16" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F2" s="16"/>
     </row>
@@ -5146,14 +5195,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>80</v>
@@ -5161,11 +5210,11 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>58</v>
@@ -5176,17 +5225,17 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -5198,7 +5247,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>79</v>
@@ -5213,7 +5262,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -5228,7 +5277,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>79</v>
@@ -5243,7 +5292,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -1051,10 +1051,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1是个人，2是群，3未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PLAYER_TYPE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1092,6 +1088,10 @@
   </si>
   <si>
     <t>PLAYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1757,8 +1757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1841,7 +1841,7 @@
         <v>256</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>253</v>
@@ -1929,13 +1929,13 @@
         <v>272</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>272</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>268</v>
@@ -1943,14 +1943,14 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="E13" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>277</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>253</v>
@@ -2099,10 +2099,10 @@
         <v>237</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>278</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2111,13 +2111,13 @@
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="F6" s="4" t="s">
         <v>281</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="7" spans="1:6">

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="2" activeTab="15"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -24,13 +24,16 @@
     <sheet name="用户授权表" sheetId="27" r:id="rId10"/>
     <sheet name="授权系人群组中间表" sheetId="28" r:id="rId11"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId12"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId13"/>
-    <sheet name="标签表" sheetId="33" r:id="rId14"/>
-    <sheet name="系統設置表" sheetId="32" r:id="rId15"/>
-    <sheet name="角色表" sheetId="20" r:id="rId16"/>
-    <sheet name="用户角色中间表" sheetId="21" r:id="rId17"/>
-    <sheet name="角色权限表" sheetId="25" r:id="rId18"/>
-    <sheet name="角色权限中间表" sheetId="22" r:id="rId19"/>
+    <sheet name="本地日程" sheetId="37" r:id="rId13"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId14"/>
+    <sheet name="标签表" sheetId="33" r:id="rId15"/>
+    <sheet name="计划表" sheetId="36" r:id="rId16"/>
+    <sheet name="同步版本表" sheetId="38" r:id="rId17"/>
+    <sheet name="系統設置表" sheetId="32" r:id="rId18"/>
+    <sheet name="角色表" sheetId="20" r:id="rId19"/>
+    <sheet name="用户角色中间表" sheetId="21" r:id="rId20"/>
+    <sheet name="角色权限表" sheetId="25" r:id="rId21"/>
+    <sheet name="角色权限中间表" sheetId="22" r:id="rId22"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -42,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="352">
   <si>
     <t>表名</t>
   </si>
@@ -197,18 +200,12 @@
     <t>SCHEDULE_NAME</t>
   </si>
   <si>
-    <t>完成状态</t>
-  </si>
-  <si>
     <t>日程参与人表ID</t>
   </si>
   <si>
     <t>完成时间</t>
   </si>
   <si>
-    <t>参与人</t>
-  </si>
-  <si>
     <t>LABEL_ID</t>
   </si>
   <si>
@@ -266,10 +263,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>参与人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>varchar(10)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -855,7 +848,423 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_FINISH_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_HEADIMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY_OHTER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY_PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划编号</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>PLAN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>GTD_LOGIN_RECORD</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER</t>
+  </si>
+  <si>
+    <t>GTD_PLAYER_MEMBER</t>
+  </si>
+  <si>
+    <t>GTD_PLAYER_MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOCAL_SCHEDULE</t>
+  </si>
+  <si>
+    <t>GTD_LOCAL_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTE</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加本地日程表、标签表、计划表、同步版本表，更新日程事件表、日程参与人表，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步版本表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -863,34 +1272,82 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SYNC_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>DEVICE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_LOCALTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>CREATE_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CREATE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -903,195 +1360,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAYER_MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAYER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_EXECUTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_FINISH_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_HEADIMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
+    <t>VARCHAR(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1099,7 +1368,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1145,13 +1414,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="3">
@@ -1202,7 +1486,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1250,6 +1534,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1537,7 +1833,7 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1559,18 +1855,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1591,91 +1887,113 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="B7" s="2"/>
+        <v>143</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>302</v>
+      </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="2"/>
+        <v>144</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="B9" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>305</v>
+      </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="B10" s="2"/>
+        <v>146</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="B11" s="2"/>
+        <v>147</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>321</v>
+      </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="7"/>
-      <c r="B18" s="2"/>
+      <c r="A18" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>313</v>
+      </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="7"/>
-      <c r="B19" s="2"/>
+      <c r="A19" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="7"/>
-      <c r="B20" s="2"/>
+      <c r="A20" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7"/>
@@ -1748,6 +2066,16 @@
     <hyperlink ref="A5" location="用户表!A1" display="用户表"/>
     <hyperlink ref="A6" location="登陆方式表!A1" display="登陆方式表"/>
     <hyperlink ref="A17" location="token表!A1" display="token表"/>
+    <hyperlink ref="A2" location="字典表!A1" display="字典表"/>
+    <hyperlink ref="A10" location="日程事件表!A1" display="日程事件表"/>
+    <hyperlink ref="A11" location="日程参与人表!A1" display="日程参与人表"/>
+    <hyperlink ref="A8" location="用户授权表!A1" display="用户授权表"/>
+    <hyperlink ref="A9" location="授权系人群组中间表!A1" display="授权联系人群组中间表"/>
+    <hyperlink ref="A7" location="登陆记录表!A1" display="登陆记录表"/>
+    <hyperlink ref="A3" location="字典数据表!A1" display="字典数据表"/>
+    <hyperlink ref="A18" location="本地日程!A1" display="本地日程表"/>
+    <hyperlink ref="A19" location="标签表!A1" display="标签表"/>
+    <hyperlink ref="A20" location="计划表!A1" display="计划表"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1755,10 +2083,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:I19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1770,22 +2098,26 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1801,226 +2133,258 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>256</v>
+        <v>282</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>279</v>
+      </c>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>258</v>
+        <v>277</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>263</v>
+        <v>255</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>265</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>266</v>
-      </c>
+        <v>281</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>280</v>
+      </c>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>269</v>
+        <v>258</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5"/>
+        <v>267</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>267</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>181</v>
+        <v>268</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>269</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>270</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>244</v>
+        <v>271</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>79</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" s="5" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B17" s="5"/>
       <c r="D17" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E17" s="4" t="s">
-        <v>245</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>246</v>
+      <c r="B19" s="5"/>
+      <c r="D19" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>240</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2028,10 +2392,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F12"/>
+  <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2043,22 +2407,26 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>306</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2074,53 +2442,55 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -2129,13 +2499,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -2144,13 +2514,13 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -2159,13 +2529,13 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -2174,20 +2544,20 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
@@ -2195,10 +2565,14 @@
       <c r="F12" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2206,10 +2580,10 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD11"/>
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2221,7 +2595,7 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -2231,12 +2605,16 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2252,8 +2630,10 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
         <v>47</v>
       </c>
@@ -2265,10 +2645,10 @@
         <v>48</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
         <v>49</v>
       </c>
@@ -2280,104 +2660,160 @@
         <v>50</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>283</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>307</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>293</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>308</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>294</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="F14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
@@ -2385,10 +2821,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2400,22 +2836,26 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>312</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2425,194 +2865,162 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>134</v>
+        <v>298</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>298</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>299</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>299</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>135</v>
+        <v>300</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>137</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>138</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>51</v>
-      </c>
+      <c r="D7" s="5"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>249</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>53</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>250</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>73</v>
-      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5"/>
       <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
       </c>
       <c r="B12" s="5"/>
       <c r="D12" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
         <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
         <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F15" s="4" t="s">
         <v>25</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F11"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+      <selection activeCell="C26" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2624,22 +3032,26 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>156</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>157</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -2649,74 +3061,339 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>297</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>295</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>21</v>
       </c>
@@ -2728,10 +3405,10 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>23</v>
       </c>
@@ -2746,7 +3423,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>26</v>
       </c>
@@ -2758,10 +3435,10 @@
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
@@ -2777,15 +3454,470 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="19.375" customWidth="1"/>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+    <col min="4" max="4" width="21.125" customWidth="1"/>
+    <col min="5" max="5" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>346</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5"/>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="18"/>
+      <c r="B14" s="1"/>
+      <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>338</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>331</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>332</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>333</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>334</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>341</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>336</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -2807,15 +3939,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>118</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>115</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -2836,62 +3968,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2906,7 +4038,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2936,7 +4068,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2977,7 +4109,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
@@ -2999,15 +4131,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>63</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3028,32 +4160,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3068,7 +4200,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3098,7 +4230,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3113,495 +4245,6 @@
         <v>29</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E2:F2"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="16" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3630,28 +4273,45 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" t="s">
         <v>75</v>
       </c>
-      <c r="B1" t="s">
-        <v>76</v>
-      </c>
-      <c r="C1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D1" t="s">
-        <v>78</v>
-      </c>
     </row>
     <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>318</v>
+      </c>
       <c r="B2" s="8">
         <v>43433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
+      </c>
+      <c r="D2" t="s">
+        <v>316</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="C3" s="12"/>
+      <c r="A3" t="s">
+        <v>319</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43461</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>326</v>
+      </c>
+      <c r="D3" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -3659,12 +4319,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6:F6"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3681,15 +4341,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>144</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3701,56 +4361,56 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>198</v>
+        <v>63</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>99</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>100</v>
+        <v>17</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>199</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
+        <v>77</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>206</v>
+        <v>60</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>207</v>
+        <v>59</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>208</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3765,7 +4425,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3795,7 +4455,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3812,55 +4472,6 @@
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -3871,12 +4482,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F17"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3893,15 +4504,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>142</v>
+        <v>87</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>200</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3922,165 +4533,108 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>103</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>107</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>108</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" s="4"/>
+        <v>23</v>
+      </c>
+      <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>79</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B9" s="4"/>
+        <v>26</v>
+      </c>
+      <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>204</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>205</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B11" s="4"/>
-      <c r="D11" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="F11" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="10"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="9"/>
-      <c r="B13" s="10"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4088,16 +4642,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F52"/>
+  <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D40" sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4114,15 +4667,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>68</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="F2" s="16"/>
+      <c r="E2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4134,56 +4687,56 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="6" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>168</v>
+        <v>55</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>171</v>
+        <v>60</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>180</v>
+        <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>173</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>177</v>
+        <v>66</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>178</v>
+        <v>54</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>179</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4195,10 +4748,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>181</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4210,7 +4763,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -4225,10 +4778,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>183</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4240,205 +4793,11 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>184</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18"/>
-      <c r="B18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19"/>
-      <c r="B19"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20"/>
-      <c r="B20"/>
-      <c r="D20"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21"/>
-      <c r="B21"/>
-      <c r="D21"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22"/>
-      <c r="B22"/>
-      <c r="D22"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23"/>
-      <c r="B23"/>
-      <c r="D23"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24"/>
-      <c r="B24"/>
-      <c r="D24"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25"/>
-      <c r="B25"/>
-      <c r="D25"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26"/>
-      <c r="B26"/>
-      <c r="D26"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27"/>
-      <c r="B27"/>
-      <c r="D27"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28"/>
-      <c r="B28"/>
-      <c r="D28"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29"/>
-      <c r="B29"/>
-      <c r="D29"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30"/>
-      <c r="B30"/>
-      <c r="D30"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31"/>
-      <c r="B31"/>
-      <c r="D31"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32"/>
-      <c r="B32"/>
-      <c r="D32"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33"/>
-      <c r="B33"/>
-      <c r="D33"/>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34"/>
-      <c r="B34"/>
-      <c r="D34"/>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35"/>
-      <c r="B35"/>
-      <c r="D35"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36"/>
-      <c r="B36"/>
-      <c r="D36"/>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37"/>
-      <c r="B37"/>
-      <c r="D37"/>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38"/>
-      <c r="B38"/>
-      <c r="D38"/>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39"/>
-      <c r="B39"/>
-      <c r="D39"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40"/>
-      <c r="B40"/>
-      <c r="D40"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41"/>
-      <c r="B41"/>
-      <c r="D41"/>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42"/>
-      <c r="B42"/>
-      <c r="D42"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43"/>
-      <c r="B43"/>
-      <c r="D43"/>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44"/>
-      <c r="B44"/>
-      <c r="D44"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45"/>
-      <c r="B45"/>
-      <c r="D45"/>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46"/>
-      <c r="B46"/>
-      <c r="D46"/>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47"/>
-      <c r="B47"/>
-      <c r="D47"/>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48"/>
-      <c r="B48"/>
-      <c r="D48"/>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49"/>
-      <c r="B49"/>
-      <c r="D49"/>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50"/>
-      <c r="B50"/>
-      <c r="D50"/>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51"/>
-      <c r="B51"/>
-      <c r="D51"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52"/>
-      <c r="B52"/>
-      <c r="D52"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4446,16 +4805,15 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F15"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4467,22 +4825,26 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>190</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4492,184 +4854,188 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>174</v>
+        <v>195</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>97</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>18</v>
+        <v>196</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>175</v>
+        <v>102</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>197</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>196</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>192</v>
+        <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>176</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>193</v>
+        <v>24</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>26</v>
-      </c>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9"/>
+      <c r="B12" s="10"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="D13" s="9"/>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:9">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
       <c r="D14" s="5"/>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:9">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
       <c r="D15" s="5"/>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
     </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5"/>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F16"/>
+  <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13:F16"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4681,22 +5047,26 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>139</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4706,226 +5076,197 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>30</v>
+        <v>102</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>189</v>
+        <v>95</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>32</v>
+        <v>103</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>104</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>35</v>
+        <v>105</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="5"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="4"/>
       <c r="D8" s="5" t="s">
-        <v>111</v>
+        <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>112</v>
+        <v>200</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>113</v>
-      </c>
-      <c r="B9" s="5"/>
+        <v>23</v>
+      </c>
+      <c r="B9" s="4"/>
       <c r="D9" s="5" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>115</v>
+        <v>201</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>116</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="B10" s="4"/>
       <c r="D10" s="5" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="B11" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="B11" s="4"/>
       <c r="D11" s="5" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>71</v>
+        <v>198</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="9" t="s">
-        <v>40</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="D12" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5"/>
       <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F14"/>
+  <dimension ref="A2:I52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4937,22 +5278,26 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>224</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -4968,188 +5313,328 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>140</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>42</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>225</v>
+        <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>186</v>
+        <v>168</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>43</v>
+        <v>174</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>226</v>
+        <v>175</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>228</v>
+        <v>178</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>83</v>
+        <v>23</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>82</v>
+        <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>230</v>
+        <v>180</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>209</v>
+        <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>231</v>
+        <v>181</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="5" t="s">
-        <v>21</v>
-      </c>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>234</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>235</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18"/>
+      <c r="B18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19"/>
+      <c r="B19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20"/>
+      <c r="B20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21"/>
+      <c r="B21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22"/>
+      <c r="B22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23"/>
+      <c r="B23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24"/>
+      <c r="B24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25"/>
+      <c r="B25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26"/>
+      <c r="B26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27"/>
+      <c r="B27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28"/>
+      <c r="B28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29"/>
+      <c r="B29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30"/>
+      <c r="B30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31"/>
+      <c r="B31"/>
+      <c r="D31"/>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32"/>
+      <c r="B32"/>
+      <c r="D32"/>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33"/>
+      <c r="B33"/>
+      <c r="D33"/>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34"/>
+      <c r="B34"/>
+      <c r="D34"/>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35"/>
+      <c r="B35"/>
+      <c r="D35"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36"/>
+      <c r="B36"/>
+      <c r="D36"/>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37"/>
+      <c r="B37"/>
+      <c r="D37"/>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38"/>
+      <c r="B38"/>
+      <c r="D38"/>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39"/>
+      <c r="B39"/>
+      <c r="D39"/>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40"/>
+      <c r="B40"/>
+      <c r="D40"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41"/>
+      <c r="B41"/>
+      <c r="D41"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42"/>
+      <c r="B42"/>
+      <c r="D42"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43"/>
+      <c r="B43"/>
+      <c r="D43"/>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44"/>
+      <c r="B44"/>
+      <c r="D44"/>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45"/>
+      <c r="B45"/>
+      <c r="D45"/>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46"/>
+      <c r="B46"/>
+      <c r="D46"/>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47"/>
+      <c r="B47"/>
+      <c r="D47"/>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48"/>
+      <c r="B48"/>
+      <c r="D48"/>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49"/>
+      <c r="B49"/>
+      <c r="D49"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50"/>
+      <c r="B50"/>
+      <c r="D50"/>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51"/>
+      <c r="B51"/>
+      <c r="D51"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52"/>
+      <c r="B52"/>
+      <c r="D52"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:F52"/>
+  <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:F10"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5161,22 +5646,26 @@
     <col min="6" max="6" width="15.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>211</v>
+        <v>185</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="16" t="s">
-        <v>222</v>
-      </c>
-      <c r="F2" s="16"/>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="E2" s="17" t="s">
+        <v>187</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -5186,59 +5675,785 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
+      <c r="E3" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5"/>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5"/>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="10"/>
+      <c r="D12" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>221</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>222</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>225</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>230</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:I3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" s="17"/>
+      <c r="H2" s="19" t="s">
+        <v>301</v>
+      </c>
+      <c r="I2" s="19"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="E3" s="15" t="s">
         <v>14</v>
       </c>
       <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
         <v>21</v>
       </c>
@@ -5247,13 +6462,13 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
         <v>23</v>
       </c>
@@ -5262,13 +6477,13 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
         <v>26</v>
       </c>
@@ -5277,13 +6492,13 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
         <v>28</v>
       </c>
@@ -5292,20 +6507,20 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:9">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
       <c r="D11" s="5"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:9">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
       <c r="D12" s="5"/>
@@ -5493,10 +6708,14 @@
       <c r="D52"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="2" activeTab="15"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="939" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="369">
   <si>
     <t>表名</t>
   </si>
@@ -191,488 +191,1203 @@
     <t>日程事件ID</t>
   </si>
   <si>
+    <t>日程事件名称</t>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+  </si>
+  <si>
+    <t>RULE_ID</t>
+  </si>
+  <si>
+    <t>中间表自增主键</t>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ROLE_NAME</t>
+  </si>
+  <si>
+    <t>角色名</t>
+  </si>
+  <si>
+    <t>ROLE_ID</t>
+  </si>
+  <si>
+    <t>角色ID</t>
+  </si>
+  <si>
+    <t>GTD_ROLE</t>
+  </si>
+  <si>
+    <t>角色表</t>
+  </si>
+  <si>
+    <t>USER_ROLE_ID</t>
+  </si>
+  <si>
+    <t>GTD_USER_ROLE</t>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+  </si>
+  <si>
+    <t>权限ID</t>
+  </si>
+  <si>
+    <t>ROLE_RULE_ID</t>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+  </si>
+  <si>
+    <t>USER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新内容</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆地点</t>
+  </si>
+  <si>
+    <t>登陆地点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_ROLE_PERMISSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权关系人中间表</t>
+  </si>
+  <si>
+    <t>授权表主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICTDATA_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REAL_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID_CARD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0无，1男，2女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系統設置表</t>
+  </si>
+  <si>
+    <t>GTD_G</t>
+  </si>
+  <si>
+    <t>系统设置自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYSTEM_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+  </si>
+  <si>
+    <t>标签ID</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_USAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_INVITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NICK_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_HEADIMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GROUP_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY_OHTER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY_PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划编号</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>PLAN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN_RECORD</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER</t>
+  </si>
+  <si>
+    <t>GTD_PLAYER_MEMBER</t>
+  </si>
+  <si>
+    <t>GTD_PLAYER_MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOCAL_SCHEDULE</t>
+  </si>
+  <si>
+    <t>本地日程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTE</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加本地日程表、标签表、计划表、同步版本表，更新日程事件表、日程参与人表，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步版本表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SYNC_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>SCHEDULE_ID</t>
-  </si>
-  <si>
-    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SCHEDULE_NAME</t>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-  </si>
-  <si>
-    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>LABEL_ID</t>
-  </si>
-  <si>
-    <t>RULE_ID</t>
-  </si>
-  <si>
-    <t>中间表自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>USER_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>ROLE_NAME</t>
-  </si>
-  <si>
-    <t>角色名</t>
-  </si>
-  <si>
-    <t>ROLE_ID</t>
-  </si>
-  <si>
-    <t>角色ID</t>
-  </si>
-  <si>
-    <t>GTD_ROLE</t>
-  </si>
-  <si>
-    <t>角色表</t>
-  </si>
-  <si>
-    <t>USER_ROLE_ID</t>
-  </si>
-  <si>
-    <t>GTD_USER_ROLE</t>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-  </si>
-  <si>
-    <t>权限ID</t>
-  </si>
-  <si>
-    <t>ROLE_RULE_ID</t>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-  </si>
-  <si>
-    <t>USER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新日期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新内容</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆地点</t>
-  </si>
-  <si>
-    <t>登陆地点</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_ROLE_PERMISSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权关系人中间表</t>
-  </si>
-  <si>
-    <t>授权表主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICTDATA_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>真实姓名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REAL_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>身份证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID_CARD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0无，1男，2女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系統設置表</t>
-  </si>
-  <si>
-    <t>GTD_G</t>
-  </si>
-  <si>
-    <t>系统设置自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SYSTEM_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_USAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_INVITER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_STATUS</t>
+    <t>END_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -680,6 +1395,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>CREATE_DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,675 +1431,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LOGIN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NICK_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_LOCALTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAYER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_EXECUTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_FINISH_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_HEADIMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PY_OHTER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PY_PLAYER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划编号</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-  </si>
-  <si>
-    <t>PLAN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN_RECORD</t>
-  </si>
-  <si>
-    <t>GTD_LOGIN_RECORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAYER</t>
-  </si>
-  <si>
-    <t>GTD_PLAYER_MEMBER</t>
-  </si>
-  <si>
-    <t>GTD_PLAYER_MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>START_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>END_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>GTD_LOCAL_SCHEDULE</t>
-  </si>
-  <si>
-    <t>GTD_LOCAL_SCHEDULE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宗煜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宗煜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_EXECUTE</t>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加本地日程表、标签表、计划表、同步版本表，更新日程事件表、日程参与人表，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步版本表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SYNC_VERSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAN_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1536,17 +1607,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1855,18 +1926,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>138</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1887,39 +1958,39 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>302</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>304</v>
+        <v>297</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>305</v>
+        <v>298</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1927,72 +1998,72 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:2">
@@ -2103,19 +2174,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>234</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2133,187 +2204,187 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2325,10 +2396,10 @@
         <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2340,7 +2411,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -2355,10 +2426,10 @@
         <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2370,10 +2441,10 @@
         <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
   </sheetData>
@@ -2412,19 +2483,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>306</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>299</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2442,52 +2513,52 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2499,10 +2570,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2514,7 +2585,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -2529,10 +2600,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2544,7 +2615,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -2583,7 +2654,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2605,14 +2676,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2630,8 +2701,8 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
@@ -2642,82 +2713,82 @@
         <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>48</v>
+        <v>353</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>77</v>
+        <v>160</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>360</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>53</v>
+        <v>355</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>56</v>
+        <v>356</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -2725,14 +2796,14 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>294</v>
+        <v>287</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>309</v>
+        <v>357</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -2754,10 +2825,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>358</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2769,7 +2840,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>349</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -2784,10 +2855,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>350</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2799,7 +2870,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>359</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -2823,7 +2894,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -2841,19 +2912,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>314</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2871,41 +2942,53 @@
       <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>298</v>
-      </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
+        <v>291</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>361</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>299</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+        <v>292</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>300</v>
+        <v>293</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
+        <v>293</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5"/>
@@ -2951,10 +3034,10 @@
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>22</v>
+        <v>364</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -2966,7 +3049,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>24</v>
+        <v>365</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -2981,10 +3064,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>27</v>
+        <v>366</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2996,7 +3079,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>29</v>
+        <v>367</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -3012,15 +3095,16 @@
     <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I17"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="A1:XFD1048576"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3042,14 +3126,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>238</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3067,22 +3151,22 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>243</v>
+        <v>342</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3094,52 +3178,52 @@
         <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>48</v>
+        <v>343</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>133</v>
+        <v>344</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>244</v>
+        <v>345</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
@@ -3147,48 +3231,40 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>288</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>245</v>
+        <v>346</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>18</v>
+        <v>167</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>76</v>
+        <v>347</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>296</v>
-      </c>
+      <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
-        <v>296</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>76</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5"/>
@@ -3198,69 +3274,62 @@
       <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
+      <c r="A13" s="5" t="s">
+        <v>21</v>
+      </c>
       <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
+      <c r="D13" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>22</v>
+        <v>349</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>24</v>
+        <v>352</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B16" s="5"/>
       <c r="D16" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>27</v>
+        <v>351</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F17" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3300,19 +3369,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>154</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>150</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3330,19 +3399,19 @@
       <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>16</v>
@@ -3350,29 +3419,29 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
@@ -3380,17 +3449,17 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3405,7 +3474,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3435,7 +3504,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3470,7 +3539,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
@@ -3488,19 +3557,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>346</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3518,67 +3587,67 @@
       <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>287</v>
+        <v>280</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>289</v>
+        <v>282</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>290</v>
+        <v>283</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>288</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3597,10 +3666,10 @@
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3612,7 +3681,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -3627,10 +3696,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3642,7 +3711,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -3654,7 +3723,7 @@
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="1:9">
-      <c r="A14" s="18"/>
+      <c r="A14" s="17"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
     </row>
@@ -3693,19 +3762,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>338</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3723,97 +3792,97 @@
       <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3853,10 +3922,10 @@
         <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -3868,7 +3937,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -3883,10 +3952,10 @@
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -3898,7 +3967,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -3939,15 +4008,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>115</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="19" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -3968,62 +4037,62 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4038,7 +4107,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4068,7 +4137,7 @@
         <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4131,15 +4200,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4160,32 +4229,32 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -4200,7 +4269,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4230,7 +4299,7 @@
         <v>27</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -4273,44 +4342,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
         <v>72</v>
-      </c>
-      <c r="B1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" t="s">
-        <v>74</v>
-      </c>
-      <c r="D1" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="B2" s="8">
         <v>43433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D2" t="s">
-        <v>316</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="B3" s="8">
         <v>43461</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="D3" t="s">
-        <v>317</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>
@@ -4341,15 +4410,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4370,14 +4439,14 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>16</v>
@@ -4395,19 +4464,19 @@
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>16</v>
@@ -4425,7 +4494,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4455,7 +4524,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4504,15 +4573,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="19" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4533,47 +4602,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4588,7 +4657,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4618,7 +4687,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4667,15 +4736,15 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="17"/>
+      <c r="E2" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="19"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4696,47 +4765,47 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -4751,7 +4820,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -4781,7 +4850,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4830,19 +4899,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>141</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4860,52 +4929,52 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4920,7 +4989,7 @@
         <v>22</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -4950,7 +5019,7 @@
         <v>27</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5052,19 +5121,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>197</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5082,67 +5151,67 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5154,10 +5223,10 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5169,7 +5238,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -5184,10 +5253,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5199,7 +5268,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>25</v>
@@ -5288,14 +5357,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5313,52 +5382,52 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5370,10 +5439,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5385,7 +5454,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -5400,10 +5469,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5415,7 +5484,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -5651,19 +5720,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>187</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5681,82 +5750,82 @@
       <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -5771,7 +5840,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5801,7 +5870,7 @@
         <v>27</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5880,14 +5949,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5905,8 +5974,8 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
@@ -5920,7 +5989,7 @@
         <v>18</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -5932,7 +6001,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
@@ -5970,14 +6039,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>31</v>
@@ -5985,17 +6054,17 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6003,7 +6072,7 @@
         <v>37</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="D10" s="5" t="s">
         <v>37</v>
@@ -6024,7 +6093,7 @@
         <v>39</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>20</v>
@@ -6057,7 +6126,7 @@
         <v>22</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6087,7 +6156,7 @@
         <v>27</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6146,14 +6215,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>296</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6171,37 +6240,37 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6213,10 +6282,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6228,7 +6297,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
@@ -6236,17 +6305,17 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6258,7 +6327,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -6266,14 +6335,14 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>44</v>
@@ -6288,10 +6357,10 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6303,7 +6372,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -6318,10 +6387,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6333,7 +6402,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -6375,19 +6444,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="17" t="s">
-        <v>219</v>
-      </c>
-      <c r="F2" s="17"/>
-      <c r="H2" s="19" t="s">
-        <v>301</v>
-      </c>
-      <c r="I2" s="19"/>
+      <c r="E2" s="19" t="s">
+        <v>215</v>
+      </c>
+      <c r="F2" s="19"/>
+      <c r="H2" s="20" t="s">
+        <v>294</v>
+      </c>
+      <c r="I2" s="20"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6405,52 +6474,52 @@
       <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="19"/>
-      <c r="I3" s="19"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="E6" s="4" t="s">
-        <v>214</v>
-      </c>
       <c r="F6" s="4" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6462,10 +6531,10 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6477,7 +6546,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -6492,10 +6561,10 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6507,7 +6576,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="2" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="16" activeTab="25"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -34,6 +34,11 @@
     <sheet name="用户角色中间表" sheetId="21" r:id="rId20"/>
     <sheet name="角色权限表" sheetId="25" r:id="rId21"/>
     <sheet name="角色权限中间表" sheetId="22" r:id="rId22"/>
+    <sheet name="日程事件子表(日程)" sheetId="39" r:id="rId23"/>
+    <sheet name="日程事件子表(日常生活)" sheetId="40" r:id="rId24"/>
+    <sheet name="日程事件子表(任务)" sheetId="41" r:id="rId25"/>
+    <sheet name="日程事件子表(纪念日)" sheetId="42" r:id="rId26"/>
+    <sheet name="日程事件子表(备忘录)" sheetId="43" r:id="rId27"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -45,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="941" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="455">
   <si>
     <t>表名</t>
   </si>
@@ -477,15 +482,1240 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>创建者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程主题备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_AUTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典数据表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆记录表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户授权表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系人群组中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统设置表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户角色中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色权限中间表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签表</t>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+  </si>
+  <si>
     <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建者</t>
+  </si>
+  <si>
+    <t>标签名称</t>
+  </si>
+  <si>
+    <t>LABEL_NAME</t>
+  </si>
+  <si>
+    <t>标签类型</t>
+  </si>
+  <si>
+    <t>LABEL_TYPE</t>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+  </si>
+  <si>
+    <t>账户状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆密码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_INVITER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ACCOUNT_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PASSWORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆方式名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_VALUE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_DICTIONARY_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字典类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DICT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登陆token</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>token表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_LOCALTION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOGIN_TOKEN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>datetime</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ANOTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人头像</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_HEADIMG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(200)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_CONTACT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权标识</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0是未授权，1是授权</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_FLAG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>INT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关联关系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RELATION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权联系类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据归属人ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群成员主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MEMBER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAYER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1是个人，2是群，0未注册用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY_OHTER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PY_PLAYER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人名称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被授权联系人别称拼音</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名称表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划编号</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划名</t>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划描述</t>
+  </si>
+  <si>
+    <t>PLAN_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与人用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回一览</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOGIN_RECORD</t>
+  </si>
+  <si>
+    <t>GTD_LOGIN_RECORD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAYER</t>
+  </si>
+  <si>
+    <t>GTD_PLAYER_MEMBER</t>
+  </si>
+  <si>
+    <t>GTD_PLAYER_MEMBER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>START_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本地日程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOCAL_SCHEDULE</t>
+  </si>
+  <si>
+    <t>本地日程表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吴宗煜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_EXECUTE</t>
+  </si>
+  <si>
+    <t>标签表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LABEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计划表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加本地日程表、标签表、计划表、同步版本表，更新日程事件表、日程参与人表，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同步版本表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自增主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新版本号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>表主键</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(100)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SYNC_VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIGINT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VERSION</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TABLE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_PLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PLAN_CONTENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOCAL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEVICE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_LOCAL_SCHEDULE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0否1是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_B</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_C</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_D</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_E</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_COLOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -493,945 +1723,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>日程主题备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_AUTH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典数据表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆记录表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户授权表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系人群组中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统设置表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户角色中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>角色权限中间表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签表</t>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-  </si>
-  <si>
-    <t>标签ID</t>
-  </si>
-  <si>
-    <t>标签名称</t>
-  </si>
-  <si>
-    <t>LABEL_NAME</t>
-  </si>
-  <si>
-    <t>标签类型</t>
-  </si>
-  <si>
-    <t>LABEL_TYPE</t>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签功能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_USAGE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>int</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-  </si>
-  <si>
-    <t>账户状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆密码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邀请人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_INVITER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ACCOUNT_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>NICK_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PASSWORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(30)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆方式名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_VALUE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_DICTIONARY_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>字典类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DICT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>登陆token</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>token表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_LOCALTION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_IP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOGIN_TOKEN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAYER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>datetime</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_EXECUTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ANOTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人头像</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_HEADIMG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(200)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_CONTACT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权标识</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0是未授权，1是授权</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_FLAG</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>INT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关联关系</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>RELATION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(10)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权联系类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据归属人ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GROUP_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>群成员主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MEMBER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAYER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1是个人，2是群，0未注册用户</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PY_OHTER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PY_PLAYER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人名称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被授权联系人别称拼音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名称表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划编号</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划名</t>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划描述</t>
-  </si>
-  <si>
-    <t>PLAN_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAN_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与人用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回一览</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOGIN_RECORD</t>
-  </si>
-  <si>
-    <t>GTD_LOGIN_RECORD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAYER</t>
-  </si>
-  <si>
-    <t>GTD_PLAYER_MEMBER</t>
-  </si>
-  <si>
-    <t>GTD_PLAYER_MEMBER</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>START_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本地日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOCAL_SCHEDULE</t>
-  </si>
-  <si>
-    <t>本地日程表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宗煜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>吴宗煜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>v0.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_EXECUTE</t>
-  </si>
-  <si>
-    <t>标签表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LABEL</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>计划表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>添加本地日程表、标签表、计划表、同步版本表，更新日程事件表、日程参与人表，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>同步版本表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>自增主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>用户ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>更新版本号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表名</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>表主键</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设备号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(100)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SYNC_VERSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BIGINT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VERSION</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>TABLE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_PLAN</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PLAN_CONTENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>END_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCAL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOCAL_SCHEDULE</t>
+    <t>GTD_SCHEDULE_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1509,7 +1849,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -1547,6 +1887,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1557,7 +1923,7 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1616,8 +1982,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1904,12 +2279,12 @@
   <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="20.625" customWidth="1"/>
@@ -1926,18 +2301,18 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="18" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -1958,39 +2333,39 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="7" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>295</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>297</v>
+        <v>289</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>8</v>
@@ -1998,93 +2373,113 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="7" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
     </row>
     <row r="12" spans="1:2">
       <c r="A12" s="7" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B12" s="2"/>
     </row>
     <row r="13" spans="1:2">
       <c r="A13" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14" spans="1:2">
       <c r="A14" s="7" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B14" s="2"/>
     </row>
     <row r="15" spans="1:2">
       <c r="A15" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B15" s="2"/>
     </row>
     <row r="16" spans="1:2">
       <c r="A16" s="7" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B16" s="2"/>
     </row>
     <row r="17" spans="1:2">
       <c r="A17" s="7" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>305</v>
+        <v>297</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>304</v>
+        <v>296</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="7"/>
-      <c r="B21" s="2"/>
+      <c r="A21" s="7" t="s">
+        <v>445</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>373</v>
+      </c>
     </row>
     <row r="22" spans="1:2">
-      <c r="A22" s="7"/>
-      <c r="B22" s="2"/>
+      <c r="A22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="7"/>
-      <c r="B23" s="2"/>
+      <c r="A23" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="7"/>
-      <c r="B24" s="2"/>
+      <c r="A24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7"/>
-      <c r="B25" s="2"/>
+      <c r="A25" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>393</v>
+      </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7"/>
@@ -2147,6 +2542,11 @@
     <hyperlink ref="A18" location="本地日程!A1" display="本地日程表"/>
     <hyperlink ref="A19" location="标签表!A1" display="标签表"/>
     <hyperlink ref="A20" location="计划表!A1" display="计划表"/>
+    <hyperlink ref="A21" location="'日程事件子表(日程)'!A1" display="日程事件子表(日程)"/>
+    <hyperlink ref="A22" location="'日程事件子表(日常生活)'!A1" display="日程事件子表(日常生活)"/>
+    <hyperlink ref="A23" location="'日程事件子表(任务)'!A1" display="日程事件子表(任务)"/>
+    <hyperlink ref="A24" location="'日程事件子表(纪念日)'!A1" display="日程事件子表(纪念日)"/>
+    <hyperlink ref="A25" location="'日程事件子表(备忘录)'!A1" display="日程事件子表(备忘录)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2179,14 +2579,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>234</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2204,34 +2604,34 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>74</v>
@@ -2239,152 +2639,152 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>241</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2396,10 +2796,10 @@
         <v>21</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2411,7 +2811,7 @@
         <v>23</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -2426,7 +2826,7 @@
         <v>26</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>73</v>
@@ -2441,10 +2841,10 @@
         <v>28</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
     </row>
   </sheetData>
@@ -2466,7 +2866,7 @@
   <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2488,14 +2888,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>299</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>291</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2513,52 +2913,52 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>90</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>229</v>
+        <v>434</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>267</v>
+        <v>259</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2570,7 +2970,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>73</v>
@@ -2585,7 +2985,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>233</v>
+        <v>226</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -2600,7 +3000,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>73</v>
@@ -2615,7 +3015,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -2654,7 +3054,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2676,14 +3076,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>310</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>302</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2701,49 +3101,49 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>47</v>
+        <v>284</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>353</v>
+        <v>374</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>48</v>
+        <v>435</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>124</v>
+        <v>436</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>88</v>
@@ -2751,14 +3151,14 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>74</v>
@@ -2766,14 +3166,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>276</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>284</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>74</v>
@@ -2781,14 +3181,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -2796,14 +3196,14 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -2825,7 +3225,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>75</v>
@@ -2840,7 +3240,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -2855,7 +3255,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>75</v>
@@ -2870,7 +3270,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -2894,7 +3294,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2:F2"/>
     </sheetView>
   </sheetViews>
@@ -2912,19 +3312,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>368</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -2942,19 +3342,19 @@
       <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>75</v>
@@ -2962,14 +3362,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>75</v>
@@ -2977,14 +3377,14 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>75</v>
@@ -3034,7 +3434,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>75</v>
@@ -3049,7 +3449,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -3064,7 +3464,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>75</v>
@@ -3079,7 +3479,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -3104,7 +3504,7 @@
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3126,14 +3526,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>238</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3151,19 +3551,19 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>128</v>
+        <v>441</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>73</v>
@@ -3171,14 +3571,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>47</v>
+        <v>440</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>73</v>
@@ -3186,14 +3586,14 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>73</v>
@@ -3201,14 +3601,14 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>130</v>
+        <v>439</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>67</v>
@@ -3216,14 +3616,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>290</v>
+        <v>438</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>16</v>
@@ -3231,14 +3631,14 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>73</v>
@@ -3246,17 +3646,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>289</v>
+        <v>437</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3282,7 +3682,7 @@
         <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>73</v>
@@ -3297,7 +3697,7 @@
         <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -3312,7 +3712,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>73</v>
@@ -3327,7 +3727,7 @@
         <v>28</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>25</v>
@@ -3349,10 +3749,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I11"/>
+  <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:F11"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3369,19 +3769,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>150</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3399,16 +3799,16 @@
       <c r="F3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>50</v>
@@ -3419,14 +3819,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>68</v>
@@ -3434,91 +3834,106 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>16</v>
+        <v>426</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>158</v>
+        <v>425</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>159</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>21</v>
+        <v>423</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>21</v>
+        <v>423</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>22</v>
+        <v>424</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>160</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>24</v>
+        <v>428</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>25</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>27</v>
+        <v>429</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>74</v>
+        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B11" s="5"/>
       <c r="D11" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>430</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="F11" s="4" t="s">
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>431</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3540,7 +3955,7 @@
   <dimension ref="A2:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3557,19 +3972,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>328</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3587,67 +4002,67 @@
       <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>283</v>
+        <v>275</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3666,7 +4081,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>74</v>
@@ -3681,7 +4096,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -3696,7 +4111,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>74</v>
@@ -3711,7 +4126,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -3745,7 +4160,7 @@
   <dimension ref="A2:I17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="H2" sqref="H2:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3762,19 +4177,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>317</v>
+        <v>309</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>328</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -3792,49 +4207,49 @@
       <c r="F3" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>321</v>
+        <v>313</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>322</v>
+        <v>314</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>95</v>
@@ -3842,14 +4257,14 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>324</v>
+        <v>316</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>95</v>
@@ -3857,14 +4272,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>95</v>
@@ -3872,17 +4287,17 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3922,7 +4337,7 @@
         <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>73</v>
@@ -3937,7 +4352,7 @@
         <v>23</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -3952,7 +4367,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>73</v>
@@ -3967,7 +4382,7 @@
         <v>28</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>25</v>
@@ -4013,10 +4428,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>112</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4205,10 +4620,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>58</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4356,30 +4771,30 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>308</v>
+        <v>300</v>
       </c>
       <c r="B2" s="8">
         <v>43433</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>298</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>309</v>
+        <v>301</v>
       </c>
       <c r="B3" s="8">
         <v>43461</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="D3" t="s">
-        <v>307</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
@@ -4415,10 +4830,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4578,10 +4993,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4719,7 +5134,7 @@
   <dimension ref="A2:F10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+      <selection activeCell="A7" sqref="A7:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -4741,10 +5156,10 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="22" t="s">
         <v>86</v>
       </c>
-      <c r="F2" s="19"/>
+      <c r="F2" s="23"/>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="2" t="s">
@@ -4756,10 +5171,10 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="19" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4873,6 +5288,1054 @@
     <mergeCell ref="E2:F2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H43" sqref="H43"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>378</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>381</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>387</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>443</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>399</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>442</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>361</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>408</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>397</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>452</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>384</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>365</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>444</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>363</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>369</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>404</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>394</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>418</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>367</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>420</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4899,19 +6362,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -4929,8 +6392,8 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
@@ -4941,7 +6404,7 @@
         <v>91</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>191</v>
+        <v>184</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>93</v>
@@ -4956,7 +6419,7 @@
         <v>94</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>115</v>
@@ -4968,13 +6431,13 @@
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5121,19 +6584,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>193</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5151,8 +6614,8 @@
       <c r="F3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
@@ -5223,7 +6686,7 @@
         <v>21</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>73</v>
@@ -5238,7 +6701,7 @@
         <v>23</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -5253,10 +6716,10 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5268,7 +6731,7 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>25</v>
@@ -5357,14 +6820,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5382,16 +6845,16 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>18</v>
@@ -5402,32 +6865,32 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -5439,7 +6902,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>73</v>
@@ -5454,7 +6917,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -5469,7 +6932,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>73</v>
@@ -5484,7 +6947,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -5720,19 +7183,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>183</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5750,31 +7213,31 @@
       <c r="F3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>18</v>
@@ -5785,44 +7248,44 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>185</v>
+        <v>178</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>79</v>
@@ -5927,7 +7390,7 @@
   <dimension ref="A2:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="D4" sqref="D4:D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5949,14 +7412,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
+      <c r="E2" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -5974,8 +7437,8 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
@@ -6001,7 +7464,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>182</v>
+        <v>433</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
@@ -6215,14 +7678,14 @@
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>296</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>288</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6240,19 +7703,19 @@
       <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>42</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>82</v>
@@ -6260,14 +7723,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>74</v>
@@ -6282,10 +7745,10 @@
         <v>43</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6297,7 +7760,7 @@
         <v>45</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>25</v>
@@ -6312,7 +7775,7 @@
         <v>76</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>75</v>
@@ -6327,7 +7790,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>19</v>
@@ -6335,14 +7798,14 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>44</v>
@@ -6357,7 +7820,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>224</v>
+        <v>217</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>74</v>
@@ -6372,7 +7835,7 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>225</v>
+        <v>218</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -6387,7 +7850,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>75</v>
@@ -6402,7 +7865,7 @@
         <v>28</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>25</v>
@@ -6444,19 +7907,19 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E2" s="19" t="s">
-        <v>215</v>
-      </c>
-      <c r="F2" s="19"/>
-      <c r="H2" s="20" t="s">
-        <v>294</v>
-      </c>
-      <c r="I2" s="20"/>
+      <c r="E2" s="20" t="s">
+        <v>208</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>286</v>
+      </c>
+      <c r="I2" s="21"/>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2" t="s">
@@ -6474,19 +7937,19 @@
       <c r="F3" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="20"/>
-      <c r="I3" s="20"/>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>74</v>
@@ -6494,11 +7957,11 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>53</v>
@@ -6509,17 +7972,17 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6531,7 +7994,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>73</v>
@@ -6546,7 +8009,7 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>25</v>
@@ -6561,7 +8024,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>73</v>
@@ -6576,7 +8039,7 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>

--- a/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
+++ b/A-开发相关文档素材/2.数据库表/服务端数据表字典.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" firstSheet="16" activeTab="25"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14370" windowHeight="5820" tabRatio="773" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="一览" sheetId="2" r:id="rId1"/>
@@ -24,21 +24,20 @@
     <sheet name="用户授权表" sheetId="27" r:id="rId10"/>
     <sheet name="授权系人群组中间表" sheetId="28" r:id="rId11"/>
     <sheet name="日程事件表" sheetId="9" r:id="rId12"/>
-    <sheet name="本地日程" sheetId="37" r:id="rId13"/>
-    <sheet name="日程参与人表" sheetId="10" r:id="rId14"/>
-    <sheet name="标签表" sheetId="33" r:id="rId15"/>
-    <sheet name="计划表" sheetId="36" r:id="rId16"/>
-    <sheet name="同步版本表" sheetId="38" r:id="rId17"/>
-    <sheet name="系統設置表" sheetId="32" r:id="rId18"/>
-    <sheet name="角色表" sheetId="20" r:id="rId19"/>
-    <sheet name="用户角色中间表" sheetId="21" r:id="rId20"/>
-    <sheet name="角色权限表" sheetId="25" r:id="rId21"/>
-    <sheet name="角色权限中间表" sheetId="22" r:id="rId22"/>
-    <sheet name="日程事件子表(日程)" sheetId="39" r:id="rId23"/>
-    <sheet name="日程事件子表(日常生活)" sheetId="40" r:id="rId24"/>
-    <sheet name="日程事件子表(任务)" sheetId="41" r:id="rId25"/>
-    <sheet name="日程事件子表(纪念日)" sheetId="42" r:id="rId26"/>
-    <sheet name="日程事件子表(备忘录)" sheetId="43" r:id="rId27"/>
+    <sheet name="日程参与人表" sheetId="10" r:id="rId13"/>
+    <sheet name="标签表" sheetId="33" r:id="rId14"/>
+    <sheet name="计划表" sheetId="36" r:id="rId15"/>
+    <sheet name="同步版本表" sheetId="38" r:id="rId16"/>
+    <sheet name="系統設置表" sheetId="32" r:id="rId17"/>
+    <sheet name="角色表" sheetId="20" r:id="rId18"/>
+    <sheet name="用户角色中间表" sheetId="21" r:id="rId19"/>
+    <sheet name="角色权限表" sheetId="25" r:id="rId20"/>
+    <sheet name="角色权限中间表" sheetId="22" r:id="rId21"/>
+    <sheet name="日程事件子表(日程)" sheetId="39" r:id="rId22"/>
+    <sheet name="日程事件子表(日常生活)" sheetId="40" r:id="rId23"/>
+    <sheet name="日程事件子表(任务)" sheetId="41" r:id="rId24"/>
+    <sheet name="日程事件子表(纪念日)" sheetId="42" r:id="rId25"/>
+    <sheet name="日程事件子表(备忘录)" sheetId="43" r:id="rId26"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -50,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1190" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1156" uniqueCount="448">
   <si>
     <t>表名</t>
   </si>
@@ -1101,18 +1100,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本地日程ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>日程事件ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>设备ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>返回一览</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1146,17 +1137,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>本地日程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOCAL_SCHEDULE</t>
-  </si>
-  <si>
-    <t>本地日程表</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>吴宗煜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1300,478 +1280,469 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_OTHER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EXECUTE_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>END_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(150)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0否1是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH_STATUS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_B</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_C</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_D</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_E</t>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_E</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+  </si>
+  <si>
+    <t>日程事件子表(任务)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+  </si>
+  <si>
+    <t>日程事件子表(备忘录)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCHEDULE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FINISH_TIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REPEAT_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>REMIND_TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>COMMENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DATETIME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VARCHAR(255)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签颜色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_COLOR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LABEL_TABLE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(5)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CREATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UPDATE_DATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>varchar(50)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>USER_NAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关系群组主键ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标签ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>授权表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>参与状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程参与人表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GTD_SCHEDULE_D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日程)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程子表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>主表ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提醒方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(日常生活)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日程事件子表(纪念日)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>v0.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删除本地日历表，更新版本表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>动作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SYNC_ACTION</t>
+  </si>
+  <si>
+    <t>VARCHAR(20)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>EXECUTE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_OTHER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EXECUTE_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>END_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(150)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LOCAL_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DEVICE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_LOCAL_SCHEDULE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-  </si>
-  <si>
-    <t>日程子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0否1是</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_A</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINISH_STATUS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_B</t>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_C</t>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_D</t>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_E</t>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_E</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-  </si>
-  <si>
-    <t>日程事件子表(任务)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-  </si>
-  <si>
-    <t>日程事件子表(备忘录)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SCHEDULE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FINISH_TIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REPEAT_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>REMIND_TYPE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>COMMENT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DATETIME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>VARCHAR(255)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签颜色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_COLOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LABEL_TABLE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(5)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(20)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CREATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>UPDATE_DATE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>varchar(50)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>USER_NAME</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关系群组主键ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标签ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>授权表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>参与状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改权限</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程参与人表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>GTD_SCHEDULE_D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日程)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程子表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>主表ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重复类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>提醒方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(日常生活)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成时间</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>日程事件子表(纪念日)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2276,10 +2247,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2344,7 +2315,7 @@
         <v>135</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -2352,7 +2323,7 @@
         <v>136</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -2360,7 +2331,7 @@
         <v>137</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -2376,7 +2347,7 @@
         <v>139</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -2419,67 +2390,63 @@
     </row>
     <row r="18" spans="1:2">
       <c r="A18" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
     </row>
     <row r="19" spans="1:2">
       <c r="A19" s="7" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="20" spans="1:2">
       <c r="A20" s="7" t="s">
-        <v>306</v>
+        <v>431</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>307</v>
+        <v>359</v>
       </c>
     </row>
     <row r="21" spans="1:2">
       <c r="A21" s="7" t="s">
-        <v>445</v>
+        <v>381</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
     </row>
     <row r="22" spans="1:2">
       <c r="A22" s="7" t="s">
-        <v>395</v>
+        <v>384</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>390</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:2">
       <c r="A23" s="7" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>391</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:2">
       <c r="A24" s="7" t="s">
-        <v>400</v>
+        <v>387</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>392</v>
+        <v>379</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>393</v>
-      </c>
+      <c r="A25" s="7"/>
+      <c r="B25" s="2"/>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7"/>
@@ -2520,10 +2487,6 @@
     <row r="35" spans="1:2">
       <c r="A35" s="7"/>
       <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="1:2">
-      <c r="A36" s="7"/>
-      <c r="B36" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2539,14 +2502,13 @@
     <hyperlink ref="A9" location="授权系人群组中间表!A1" display="授权联系人群组中间表"/>
     <hyperlink ref="A7" location="登陆记录表!A1" display="登陆记录表"/>
     <hyperlink ref="A3" location="字典数据表!A1" display="字典数据表"/>
-    <hyperlink ref="A18" location="本地日程!A1" display="本地日程表"/>
-    <hyperlink ref="A19" location="标签表!A1" display="标签表"/>
-    <hyperlink ref="A20" location="计划表!A1" display="计划表"/>
-    <hyperlink ref="A21" location="'日程事件子表(日程)'!A1" display="日程事件子表(日程)"/>
-    <hyperlink ref="A22" location="'日程事件子表(日常生活)'!A1" display="日程事件子表(日常生活)"/>
-    <hyperlink ref="A23" location="'日程事件子表(任务)'!A1" display="日程事件子表(任务)"/>
-    <hyperlink ref="A24" location="'日程事件子表(纪念日)'!A1" display="日程事件子表(纪念日)"/>
-    <hyperlink ref="A25" location="'日程事件子表(备忘录)'!A1" display="日程事件子表(备忘录)"/>
+    <hyperlink ref="A18" location="标签表!A1" display="标签表"/>
+    <hyperlink ref="A19" location="计划表!A1" display="计划表"/>
+    <hyperlink ref="A20" location="'日程事件子表(日程)'!A1" display="日程事件子表(日程)"/>
+    <hyperlink ref="A21" location="'日程事件子表(日常生活)'!A1" display="日程事件子表(日常生活)"/>
+    <hyperlink ref="A22" location="'日程事件子表(任务)'!A1" display="日程事件子表(任务)"/>
+    <hyperlink ref="A23" location="'日程事件子表(纪念日)'!A1" display="日程事件子表(纪念日)"/>
+    <hyperlink ref="A24" location="'日程事件子表(备忘录)'!A1" display="日程事件子表(备忘录)"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2557,7 +2519,7 @@
   <dimension ref="A2:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -2584,7 +2546,7 @@
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -2889,11 +2851,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -2933,7 +2895,7 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
@@ -3054,7 +3016,7 @@
   <dimension ref="A2:I15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3077,11 +3039,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -3106,14 +3068,14 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
         <v>47</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>154</v>
@@ -3121,29 +3083,29 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
         <v>48</v>
       </c>
       <c r="E5" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>351</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
         <v>124</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>88</v>
@@ -3158,7 +3120,7 @@
         <v>125</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>74</v>
@@ -3188,7 +3150,7 @@
         <v>278</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>25</v>
@@ -3203,7 +3165,7 @@
         <v>279</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -3225,7 +3187,7 @@
         <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>75</v>
@@ -3240,7 +3202,7 @@
         <v>23</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>25</v>
@@ -3255,7 +3217,7 @@
         <v>26</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>75</v>
@@ -3270,7 +3232,7 @@
         <v>28</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F15" s="4" t="s">
         <v>25</v>
@@ -3292,10 +3254,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I15"/>
+  <dimension ref="A2:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -3312,17 +3274,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>295</v>
+        <v>9</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>359</v>
+        <v>231</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -3336,10 +3298,10 @@
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="16" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="16" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
       <c r="H3" s="21"/>
@@ -3347,76 +3309,108 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>283</v>
+        <v>427</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>283</v>
+        <v>49</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>352</v>
+        <v>447</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>284</v>
+        <v>426</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>284</v>
+        <v>47</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>353</v>
+        <v>329</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>285</v>
+        <v>126</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>285</v>
+        <v>80</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>354</v>
+        <v>330</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="5"/>
+      <c r="A7" s="5" t="s">
+        <v>425</v>
+      </c>
       <c r="B7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
+      <c r="D7" s="5" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>67</v>
+      </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="5"/>
+      <c r="A8" s="5" t="s">
+        <v>424</v>
+      </c>
       <c r="B8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="D8" s="5" t="s">
+        <v>282</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="5"/>
+      <c r="A9" s="5" t="s">
+        <v>280</v>
+      </c>
       <c r="B9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
+      <c r="D9" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>332</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
+      <c r="A10" s="5" t="s">
+        <v>423</v>
+      </c>
       <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
+      <c r="D10" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>333</v>
+      </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="5"/>
@@ -3426,62 +3420,69 @@
       <c r="F11" s="4"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="5" t="s">
-        <v>21</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="D12" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B13" s="5"/>
       <c r="D13" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>356</v>
+        <v>334</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>25</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B14" s="5"/>
       <c r="D14" s="5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>357</v>
+        <v>335</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B15" s="5"/>
       <c r="D15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>358</v>
-      </c>
-      <c r="F15" s="4" t="s">
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="F16" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3500,254 +3501,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="H2" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>441</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>440</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>126</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>439</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>438</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>337</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>437</v>
-      </c>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5" t="s">
-        <v>281</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>341</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>343</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I12"/>
   <sheetViews>
@@ -3779,7 +3532,7 @@
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -3844,7 +3597,7 @@
         <v>151</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3856,22 +3609,22 @@
         <v>153</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>68</v>
@@ -3886,7 +3639,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>154</v>
@@ -3901,7 +3654,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -3916,10 +3669,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3931,7 +3684,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -3950,7 +3703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
@@ -3978,11 +3731,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -4017,7 +3770,7 @@
         <v>276</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -4044,7 +3797,7 @@
         <v>275</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="F6" s="4" t="s">
         <v>273</v>
@@ -4056,10 +3809,10 @@
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>271</v>
@@ -4081,7 +3834,7 @@
         <v>21</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>74</v>
@@ -4096,7 +3849,7 @@
         <v>23</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>25</v>
@@ -4111,7 +3864,7 @@
         <v>26</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>74</v>
@@ -4126,7 +3879,7 @@
         <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>25</v>
@@ -4141,6 +3894,260 @@
       <c r="A14" s="17"/>
       <c r="B14" s="1"/>
       <c r="D14" s="1"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="H2:I3"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:I17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="20.625" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="H2" s="21" t="s">
+        <v>284</v>
+      </c>
+      <c r="I2" s="21"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="21"/>
+      <c r="I3" s="21"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="D4" s="5" t="s">
+        <v>308</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="D5" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="D6" s="5" t="s">
+        <v>310</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>317</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="D7" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="B8" s="5"/>
+      <c r="D8" s="5" t="s">
+        <v>312</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="B9" s="5"/>
+      <c r="D9" s="5" t="s">
+        <v>313</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="B10" s="5"/>
+      <c r="D10" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>445</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="5"/>
+      <c r="B11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="5"/>
+      <c r="D14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="5"/>
+      <c r="D15" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="D16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="D17" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -4156,252 +4163,6 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:I3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="1" max="1" width="20.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="40.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20.625" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>320</v>
-      </c>
-      <c r="F2" s="20"/>
-      <c r="H2" s="21" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" s="21"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="21"/>
-      <c r="I3" s="21"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="D4" s="5" t="s">
-        <v>313</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="D5" s="5" t="s">
-        <v>314</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="B6" s="5"/>
-      <c r="D6" s="5" t="s">
-        <v>315</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="D7" s="5" t="s">
-        <v>316</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>317</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="B9" s="5"/>
-      <c r="D9" s="5" t="s">
-        <v>318</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="5"/>
-      <c r="B10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="5"/>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="5"/>
-      <c r="B12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="5"/>
-      <c r="D14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>325</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="4" t="s">
-        <v>169</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="D16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E16" s="4" t="s">
-        <v>326</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="D17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="F17" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="H2:I3"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="H2:I3" location="一览!A1" display="一览!A1"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F13"/>
   <sheetViews>
@@ -4593,7 +4354,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F9"/>
   <sheetViews>
@@ -4741,69 +4502,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="164.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>69</v>
-      </c>
-      <c r="B1" t="s">
-        <v>70</v>
-      </c>
-      <c r="C1" t="s">
-        <v>71</v>
-      </c>
-      <c r="D1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="8">
-        <v>43433</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D2" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>301</v>
-      </c>
-      <c r="B3" s="8">
-        <v>43461</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" t="s">
-        <v>299</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -4966,7 +4665,80 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="164.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2" s="8">
+        <v>43433</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="D2" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" s="8">
+        <v>43461</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="D3" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>441</v>
+      </c>
+      <c r="B4" s="8">
+        <v>43473</v>
+      </c>
+      <c r="C4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -5129,7 +4901,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:F10"/>
   <sheetViews>
@@ -5292,7 +5064,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
@@ -5314,17 +5086,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -5349,11 +5121,11 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>161</v>
@@ -5364,14 +5136,14 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>271</v>
@@ -5379,44 +5151,44 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>181</v>
@@ -5424,17 +5196,17 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5446,7 +5218,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>271</v>
@@ -5461,10 +5233,10 @@
         <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5491,10 +5263,10 @@
         <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -5513,7 +5285,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I12"/>
   <sheetViews>
@@ -5535,17 +5307,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -5570,62 +5342,62 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -5655,7 +5427,7 @@
         <v>169</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -5667,7 +5439,7 @@
         <v>26</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>271</v>
@@ -5682,10 +5454,10 @@
         <v>28</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -5705,7 +5477,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I15"/>
   <sheetViews>
@@ -5727,17 +5499,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -5762,29 +5534,29 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E4" s="4" t="s">
         <v>161</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>271</v>
@@ -5792,61 +5564,61 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>121</v>
@@ -5854,17 +5626,17 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="5" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
       <c r="B10" s="5"/>
       <c r="D10" s="5" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -5876,7 +5648,7 @@
         <v>21</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="F11" s="4" t="s">
         <v>271</v>
@@ -5891,10 +5663,10 @@
         <v>23</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -5906,7 +5678,7 @@
         <v>26</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F13" s="4" t="s">
         <v>271</v>
@@ -5924,7 +5696,7 @@
         <v>171</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -5943,11 +5715,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
@@ -5965,17 +5737,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -6000,29 +5772,29 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>271</v>
@@ -6030,29 +5802,29 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="5" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="B7" s="5"/>
       <c r="D7" s="5" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
       <c r="F7" s="4" t="s">
         <v>181</v>
@@ -6060,14 +5832,14 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="5" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
       <c r="B8" s="5"/>
       <c r="D8" s="5" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="F8" s="4" t="s">
         <v>181</v>
@@ -6075,17 +5847,17 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="5" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="B9" s="5"/>
       <c r="D9" s="5" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6097,7 +5869,7 @@
         <v>21</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="F10" s="4" t="s">
         <v>271</v>
@@ -6112,10 +5884,10 @@
         <v>23</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6127,7 +5899,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="F12" s="4" t="s">
         <v>271</v>
@@ -6142,10 +5914,10 @@
         <v>28</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6164,7 +5936,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:I11"/>
   <sheetViews>
@@ -6186,17 +5958,17 @@
         <v>10</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -6221,29 +5993,29 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="5" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="B4" s="5"/>
       <c r="D4" s="5" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="B5" s="5"/>
       <c r="D5" s="5" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>271</v>
@@ -6251,17 +6023,17 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="B6" s="5"/>
       <c r="D6" s="5" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6288,10 +6060,10 @@
         <v>23</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6303,7 +6075,7 @@
         <v>26</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
       <c r="F9" s="4" t="s">
         <v>271</v>
@@ -6318,10 +6090,10 @@
         <v>28</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6372,7 +6144,7 @@
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -6594,7 +6366,7 @@
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -6825,7 +6597,7 @@
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -7193,7 +6965,7 @@
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -7417,7 +7189,7 @@
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -7464,7 +7236,7 @@
         <v>30</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>31</v>
@@ -7679,11 +7451,11 @@
         <v>0</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
@@ -7917,7 +7689,7 @@
       </c>
       <c r="F2" s="20"/>
       <c r="H2" s="21" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="I2" s="21"/>
     </row>
